--- a/DOC/基本設計/基本設計_emsm_仕訳機能.xlsx
+++ b/DOC/基本設計/基本設計_emsm_仕訳機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\Downloads\emsm\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6A903B-5C01-442C-AFC7-19F04396D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2321D79-285C-4CF6-9930-C4BB0D588AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -769,24 +769,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①仕訳を管理するために経費したものを画面に入力して、DBに登録する。</t>
+    <t>①仕訳テーブルからデータを取得して、画面に設定する。</t>
     <rPh sb="1" eb="3">
       <t>シワケ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイヒ</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>ガメン</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2541,6 +2535,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2556,148 +2646,52 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2725,6 +2719,12 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2734,6 +2734,36 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2743,48 +2773,21 @@
     <xf numFmtId="49" fontId="17" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2794,14 +2797,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2815,33 +2923,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2854,9 +2935,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,89 +2947,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2962,14 +2983,35 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3015,54 +3057,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5114,34 +5108,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -5168,32 +5162,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -5220,166 +5214,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="177"/>
-      <c r="AK4" s="177"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="177"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="152" t="s">
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138"/>
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="150" t="s">
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="152" t="s">
+      <c r="BA4" s="144"/>
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BE4" s="144"/>
+      <c r="BF4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="155" t="s">
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="156"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
+      <c r="BM4" s="144"/>
+      <c r="BN4" s="149"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="157" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="163" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="147"/>
-      <c r="BA5" s="147"/>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="140"/>
+      <c r="BA5" s="140"/>
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="148"/>
-      <c r="BK5" s="148"/>
-      <c r="BL5" s="148"/>
-      <c r="BM5" s="148"/>
-      <c r="BN5" s="149"/>
+      <c r="BG5" s="140"/>
+      <c r="BH5" s="157"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="141"/>
+      <c r="BK5" s="141"/>
+      <c r="BL5" s="141"/>
+      <c r="BM5" s="141"/>
+      <c r="BN5" s="142"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
@@ -5430,25 +5424,25 @@
       <c r="AT6" s="61"/>
       <c r="AU6" s="61"/>
       <c r="AV6" s="61"/>
-      <c r="AW6" s="134" t="s">
+      <c r="AW6" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135"/>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135"/>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="136"/>
+      <c r="AX6" s="172"/>
+      <c r="AY6" s="172"/>
+      <c r="AZ6" s="172"/>
+      <c r="BA6" s="172"/>
+      <c r="BB6" s="172"/>
+      <c r="BC6" s="172"/>
+      <c r="BD6" s="172"/>
+      <c r="BE6" s="172"/>
+      <c r="BF6" s="172"/>
+      <c r="BG6" s="172"/>
+      <c r="BH6" s="172"/>
+      <c r="BI6" s="172"/>
+      <c r="BJ6" s="172"/>
+      <c r="BK6" s="172"/>
+      <c r="BL6" s="172"/>
+      <c r="BM6" s="173"/>
       <c r="BN6" s="60"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5500,23 +5494,23 @@
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
       <c r="AV7" s="61"/>
-      <c r="AW7" s="137"/>
-      <c r="AX7" s="138"/>
-      <c r="AY7" s="138"/>
-      <c r="AZ7" s="138"/>
-      <c r="BA7" s="138"/>
-      <c r="BB7" s="138"/>
-      <c r="BC7" s="138"/>
-      <c r="BD7" s="138"/>
-      <c r="BE7" s="138"/>
-      <c r="BF7" s="138"/>
-      <c r="BG7" s="138"/>
-      <c r="BH7" s="138"/>
-      <c r="BI7" s="138"/>
-      <c r="BJ7" s="138"/>
-      <c r="BK7" s="138"/>
-      <c r="BL7" s="138"/>
-      <c r="BM7" s="139"/>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="175"/>
+      <c r="AY7" s="175"/>
+      <c r="AZ7" s="175"/>
+      <c r="BA7" s="175"/>
+      <c r="BB7" s="175"/>
+      <c r="BC7" s="175"/>
+      <c r="BD7" s="175"/>
+      <c r="BE7" s="175"/>
+      <c r="BF7" s="175"/>
+      <c r="BG7" s="175"/>
+      <c r="BH7" s="175"/>
+      <c r="BI7" s="175"/>
+      <c r="BJ7" s="175"/>
+      <c r="BK7" s="175"/>
+      <c r="BL7" s="175"/>
+      <c r="BM7" s="176"/>
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5576,15 +5570,15 @@
       <c r="BB8" s="61"/>
       <c r="BC8" s="61"/>
       <c r="BD8" s="61"/>
-      <c r="BE8" s="140"/>
-      <c r="BF8" s="126"/>
-      <c r="BG8" s="126"/>
-      <c r="BH8" s="126"/>
-      <c r="BI8" s="126"/>
-      <c r="BJ8" s="126"/>
-      <c r="BK8" s="126"/>
-      <c r="BL8" s="126"/>
-      <c r="BM8" s="127"/>
+      <c r="BE8" s="163"/>
+      <c r="BF8" s="158"/>
+      <c r="BG8" s="158"/>
+      <c r="BH8" s="158"/>
+      <c r="BI8" s="158"/>
+      <c r="BJ8" s="158"/>
+      <c r="BK8" s="158"/>
+      <c r="BL8" s="158"/>
+      <c r="BM8" s="159"/>
       <c r="BN8" s="60"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5644,15 +5638,15 @@
       <c r="BB9" s="61"/>
       <c r="BC9" s="61"/>
       <c r="BD9" s="61"/>
-      <c r="BE9" s="140"/>
-      <c r="BF9" s="126"/>
-      <c r="BG9" s="126"/>
-      <c r="BH9" s="126"/>
-      <c r="BI9" s="126"/>
-      <c r="BJ9" s="126"/>
-      <c r="BK9" s="126"/>
-      <c r="BL9" s="126"/>
-      <c r="BM9" s="127"/>
+      <c r="BE9" s="163"/>
+      <c r="BF9" s="158"/>
+      <c r="BG9" s="158"/>
+      <c r="BH9" s="158"/>
+      <c r="BI9" s="158"/>
+      <c r="BJ9" s="158"/>
+      <c r="BK9" s="158"/>
+      <c r="BL9" s="158"/>
+      <c r="BM9" s="159"/>
       <c r="BN9" s="60"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6784,15 +6778,15 @@
       <c r="BB26" s="61"/>
       <c r="BC26" s="61"/>
       <c r="BD26" s="61"/>
-      <c r="BE26" s="140"/>
-      <c r="BF26" s="126"/>
-      <c r="BG26" s="126"/>
-      <c r="BH26" s="126"/>
-      <c r="BI26" s="126"/>
-      <c r="BJ26" s="126"/>
-      <c r="BK26" s="126"/>
-      <c r="BL26" s="126"/>
-      <c r="BM26" s="127"/>
+      <c r="BE26" s="163"/>
+      <c r="BF26" s="158"/>
+      <c r="BG26" s="158"/>
+      <c r="BH26" s="158"/>
+      <c r="BI26" s="158"/>
+      <c r="BJ26" s="158"/>
+      <c r="BK26" s="158"/>
+      <c r="BL26" s="158"/>
+      <c r="BM26" s="159"/>
       <c r="BN26" s="60"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6852,15 +6846,15 @@
       <c r="BB27" s="61"/>
       <c r="BC27" s="61"/>
       <c r="BD27" s="61"/>
-      <c r="BE27" s="140"/>
-      <c r="BF27" s="126"/>
-      <c r="BG27" s="126"/>
-      <c r="BH27" s="126"/>
-      <c r="BI27" s="126"/>
-      <c r="BJ27" s="126"/>
-      <c r="BK27" s="126"/>
-      <c r="BL27" s="126"/>
-      <c r="BM27" s="127"/>
+      <c r="BE27" s="163"/>
+      <c r="BF27" s="158"/>
+      <c r="BG27" s="158"/>
+      <c r="BH27" s="158"/>
+      <c r="BI27" s="158"/>
+      <c r="BJ27" s="158"/>
+      <c r="BK27" s="158"/>
+      <c r="BL27" s="158"/>
+      <c r="BM27" s="159"/>
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6920,15 +6914,15 @@
       <c r="BB28" s="61"/>
       <c r="BC28" s="61"/>
       <c r="BD28" s="61"/>
-      <c r="BE28" s="140"/>
-      <c r="BF28" s="126"/>
-      <c r="BG28" s="126"/>
-      <c r="BH28" s="126"/>
-      <c r="BI28" s="126"/>
-      <c r="BJ28" s="126"/>
-      <c r="BK28" s="126"/>
-      <c r="BL28" s="126"/>
-      <c r="BM28" s="127"/>
+      <c r="BE28" s="163"/>
+      <c r="BF28" s="158"/>
+      <c r="BG28" s="158"/>
+      <c r="BH28" s="158"/>
+      <c r="BI28" s="158"/>
+      <c r="BJ28" s="158"/>
+      <c r="BK28" s="158"/>
+      <c r="BL28" s="158"/>
+      <c r="BM28" s="159"/>
       <c r="BN28" s="60"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6988,15 +6982,15 @@
       <c r="BB29" s="61"/>
       <c r="BC29" s="61"/>
       <c r="BD29" s="61"/>
-      <c r="BE29" s="140"/>
-      <c r="BF29" s="126"/>
-      <c r="BG29" s="126"/>
-      <c r="BH29" s="126"/>
-      <c r="BI29" s="126"/>
-      <c r="BJ29" s="126"/>
-      <c r="BK29" s="126"/>
-      <c r="BL29" s="126"/>
-      <c r="BM29" s="127"/>
+      <c r="BE29" s="163"/>
+      <c r="BF29" s="158"/>
+      <c r="BG29" s="158"/>
+      <c r="BH29" s="158"/>
+      <c r="BI29" s="158"/>
+      <c r="BJ29" s="158"/>
+      <c r="BK29" s="158"/>
+      <c r="BL29" s="158"/>
+      <c r="BM29" s="159"/>
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7056,15 +7050,15 @@
       <c r="BB30" s="61"/>
       <c r="BC30" s="61"/>
       <c r="BD30" s="61"/>
-      <c r="BE30" s="131"/>
-      <c r="BF30" s="126"/>
-      <c r="BG30" s="126"/>
-      <c r="BH30" s="126"/>
-      <c r="BI30" s="126"/>
-      <c r="BJ30" s="126"/>
-      <c r="BK30" s="126"/>
-      <c r="BL30" s="126"/>
-      <c r="BM30" s="127"/>
+      <c r="BE30" s="164"/>
+      <c r="BF30" s="158"/>
+      <c r="BG30" s="158"/>
+      <c r="BH30" s="158"/>
+      <c r="BI30" s="158"/>
+      <c r="BJ30" s="158"/>
+      <c r="BK30" s="158"/>
+      <c r="BL30" s="158"/>
+      <c r="BM30" s="159"/>
       <c r="BN30" s="60"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7124,15 +7118,15 @@
       <c r="BB31" s="61"/>
       <c r="BC31" s="61"/>
       <c r="BD31" s="61"/>
-      <c r="BE31" s="141"/>
-      <c r="BF31" s="142"/>
-      <c r="BG31" s="142"/>
-      <c r="BH31" s="142"/>
-      <c r="BI31" s="142"/>
-      <c r="BJ31" s="142"/>
-      <c r="BK31" s="142"/>
-      <c r="BL31" s="142"/>
-      <c r="BM31" s="143"/>
+      <c r="BE31" s="165"/>
+      <c r="BF31" s="166"/>
+      <c r="BG31" s="166"/>
+      <c r="BH31" s="166"/>
+      <c r="BI31" s="166"/>
+      <c r="BJ31" s="166"/>
+      <c r="BK31" s="166"/>
+      <c r="BL31" s="166"/>
+      <c r="BM31" s="167"/>
       <c r="BN31" s="60"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7192,15 +7186,15 @@
       <c r="BB32" s="61"/>
       <c r="BC32" s="61"/>
       <c r="BD32" s="61"/>
-      <c r="BE32" s="144"/>
-      <c r="BF32" s="145"/>
-      <c r="BG32" s="145"/>
-      <c r="BH32" s="145"/>
-      <c r="BI32" s="145"/>
-      <c r="BJ32" s="145"/>
-      <c r="BK32" s="145"/>
-      <c r="BL32" s="145"/>
-      <c r="BM32" s="146"/>
+      <c r="BE32" s="168"/>
+      <c r="BF32" s="169"/>
+      <c r="BG32" s="169"/>
+      <c r="BH32" s="169"/>
+      <c r="BI32" s="169"/>
+      <c r="BJ32" s="169"/>
+      <c r="BK32" s="169"/>
+      <c r="BL32" s="169"/>
+      <c r="BM32" s="170"/>
       <c r="BN32" s="60"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7260,15 +7254,15 @@
       <c r="BB33" s="61"/>
       <c r="BC33" s="61"/>
       <c r="BD33" s="61"/>
-      <c r="BE33" s="140"/>
-      <c r="BF33" s="126"/>
-      <c r="BG33" s="126"/>
-      <c r="BH33" s="126"/>
-      <c r="BI33" s="126"/>
-      <c r="BJ33" s="126"/>
-      <c r="BK33" s="126"/>
-      <c r="BL33" s="126"/>
-      <c r="BM33" s="127"/>
+      <c r="BE33" s="163"/>
+      <c r="BF33" s="158"/>
+      <c r="BG33" s="158"/>
+      <c r="BH33" s="158"/>
+      <c r="BI33" s="158"/>
+      <c r="BJ33" s="158"/>
+      <c r="BK33" s="158"/>
+      <c r="BL33" s="158"/>
+      <c r="BM33" s="159"/>
       <c r="BN33" s="60"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7328,15 +7322,15 @@
       <c r="BB34" s="61"/>
       <c r="BC34" s="61"/>
       <c r="BD34" s="61"/>
-      <c r="BE34" s="128"/>
-      <c r="BF34" s="129"/>
-      <c r="BG34" s="129"/>
-      <c r="BH34" s="129"/>
-      <c r="BI34" s="129"/>
-      <c r="BJ34" s="129"/>
-      <c r="BK34" s="129"/>
-      <c r="BL34" s="129"/>
-      <c r="BM34" s="130"/>
+      <c r="BE34" s="160"/>
+      <c r="BF34" s="161"/>
+      <c r="BG34" s="161"/>
+      <c r="BH34" s="161"/>
+      <c r="BI34" s="161"/>
+      <c r="BJ34" s="161"/>
+      <c r="BK34" s="161"/>
+      <c r="BL34" s="161"/>
+      <c r="BM34" s="162"/>
       <c r="BN34" s="60"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7396,15 +7390,15 @@
       <c r="BB35" s="61"/>
       <c r="BC35" s="61"/>
       <c r="BD35" s="66"/>
-      <c r="BE35" s="126"/>
-      <c r="BF35" s="126"/>
-      <c r="BG35" s="126"/>
-      <c r="BH35" s="126"/>
-      <c r="BI35" s="126"/>
-      <c r="BJ35" s="126"/>
-      <c r="BK35" s="126"/>
-      <c r="BL35" s="126"/>
-      <c r="BM35" s="127"/>
+      <c r="BE35" s="158"/>
+      <c r="BF35" s="158"/>
+      <c r="BG35" s="158"/>
+      <c r="BH35" s="158"/>
+      <c r="BI35" s="158"/>
+      <c r="BJ35" s="158"/>
+      <c r="BK35" s="158"/>
+      <c r="BL35" s="158"/>
+      <c r="BM35" s="159"/>
       <c r="BN35" s="60"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7464,15 +7458,15 @@
       <c r="BB36" s="61"/>
       <c r="BC36" s="61"/>
       <c r="BD36" s="61"/>
-      <c r="BE36" s="128"/>
-      <c r="BF36" s="129"/>
-      <c r="BG36" s="129"/>
-      <c r="BH36" s="129"/>
-      <c r="BI36" s="129"/>
-      <c r="BJ36" s="129"/>
-      <c r="BK36" s="129"/>
-      <c r="BL36" s="129"/>
-      <c r="BM36" s="130"/>
+      <c r="BE36" s="160"/>
+      <c r="BF36" s="161"/>
+      <c r="BG36" s="161"/>
+      <c r="BH36" s="161"/>
+      <c r="BI36" s="161"/>
+      <c r="BJ36" s="161"/>
+      <c r="BK36" s="161"/>
+      <c r="BL36" s="161"/>
+      <c r="BM36" s="162"/>
       <c r="BN36" s="60"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7532,15 +7526,15 @@
       <c r="BB37" s="61"/>
       <c r="BC37" s="61"/>
       <c r="BD37" s="66"/>
-      <c r="BE37" s="126"/>
-      <c r="BF37" s="126"/>
-      <c r="BG37" s="126"/>
-      <c r="BH37" s="126"/>
-      <c r="BI37" s="126"/>
-      <c r="BJ37" s="126"/>
-      <c r="BK37" s="126"/>
-      <c r="BL37" s="126"/>
-      <c r="BM37" s="127"/>
+      <c r="BE37" s="158"/>
+      <c r="BF37" s="158"/>
+      <c r="BG37" s="158"/>
+      <c r="BH37" s="158"/>
+      <c r="BI37" s="158"/>
+      <c r="BJ37" s="158"/>
+      <c r="BK37" s="158"/>
+      <c r="BL37" s="158"/>
+      <c r="BM37" s="159"/>
       <c r="BN37" s="60"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7600,15 +7594,15 @@
       <c r="BB38" s="61"/>
       <c r="BC38" s="61"/>
       <c r="BD38" s="61"/>
-      <c r="BE38" s="128"/>
-      <c r="BF38" s="129"/>
-      <c r="BG38" s="129"/>
-      <c r="BH38" s="129"/>
-      <c r="BI38" s="129"/>
-      <c r="BJ38" s="129"/>
-      <c r="BK38" s="129"/>
-      <c r="BL38" s="129"/>
-      <c r="BM38" s="130"/>
+      <c r="BE38" s="160"/>
+      <c r="BF38" s="161"/>
+      <c r="BG38" s="161"/>
+      <c r="BH38" s="161"/>
+      <c r="BI38" s="161"/>
+      <c r="BJ38" s="161"/>
+      <c r="BK38" s="161"/>
+      <c r="BL38" s="161"/>
+      <c r="BM38" s="162"/>
       <c r="BN38" s="60"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7668,15 +7662,15 @@
       <c r="BB39" s="61"/>
       <c r="BC39" s="61"/>
       <c r="BD39" s="66"/>
-      <c r="BE39" s="126"/>
-      <c r="BF39" s="126"/>
-      <c r="BG39" s="126"/>
-      <c r="BH39" s="126"/>
-      <c r="BI39" s="126"/>
-      <c r="BJ39" s="126"/>
-      <c r="BK39" s="126"/>
-      <c r="BL39" s="126"/>
-      <c r="BM39" s="127"/>
+      <c r="BE39" s="158"/>
+      <c r="BF39" s="158"/>
+      <c r="BG39" s="158"/>
+      <c r="BH39" s="158"/>
+      <c r="BI39" s="158"/>
+      <c r="BJ39" s="158"/>
+      <c r="BK39" s="158"/>
+      <c r="BL39" s="158"/>
+      <c r="BM39" s="159"/>
       <c r="BN39" s="60"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7736,15 +7730,15 @@
       <c r="BB40" s="61"/>
       <c r="BC40" s="61"/>
       <c r="BD40" s="61"/>
-      <c r="BE40" s="128"/>
-      <c r="BF40" s="129"/>
-      <c r="BG40" s="129"/>
-      <c r="BH40" s="129"/>
-      <c r="BI40" s="129"/>
-      <c r="BJ40" s="129"/>
-      <c r="BK40" s="129"/>
-      <c r="BL40" s="129"/>
-      <c r="BM40" s="130"/>
+      <c r="BE40" s="160"/>
+      <c r="BF40" s="161"/>
+      <c r="BG40" s="161"/>
+      <c r="BH40" s="161"/>
+      <c r="BI40" s="161"/>
+      <c r="BJ40" s="161"/>
+      <c r="BK40" s="161"/>
+      <c r="BL40" s="161"/>
+      <c r="BM40" s="162"/>
       <c r="BN40" s="60"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7804,15 +7798,15 @@
       <c r="BB41" s="61"/>
       <c r="BC41" s="61"/>
       <c r="BD41" s="61"/>
-      <c r="BE41" s="131"/>
-      <c r="BF41" s="126"/>
-      <c r="BG41" s="126"/>
-      <c r="BH41" s="126"/>
-      <c r="BI41" s="126"/>
-      <c r="BJ41" s="126"/>
-      <c r="BK41" s="126"/>
-      <c r="BL41" s="126"/>
-      <c r="BM41" s="127"/>
+      <c r="BE41" s="164"/>
+      <c r="BF41" s="158"/>
+      <c r="BG41" s="158"/>
+      <c r="BH41" s="158"/>
+      <c r="BI41" s="158"/>
+      <c r="BJ41" s="158"/>
+      <c r="BK41" s="158"/>
+      <c r="BL41" s="158"/>
+      <c r="BM41" s="159"/>
       <c r="BN41" s="60"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7872,15 +7866,15 @@
       <c r="BB42" s="61"/>
       <c r="BC42" s="61"/>
       <c r="BD42" s="61"/>
-      <c r="BE42" s="131"/>
-      <c r="BF42" s="126"/>
-      <c r="BG42" s="126"/>
-      <c r="BH42" s="126"/>
-      <c r="BI42" s="126"/>
-      <c r="BJ42" s="126"/>
-      <c r="BK42" s="126"/>
-      <c r="BL42" s="126"/>
-      <c r="BM42" s="127"/>
+      <c r="BE42" s="164"/>
+      <c r="BF42" s="158"/>
+      <c r="BG42" s="158"/>
+      <c r="BH42" s="158"/>
+      <c r="BI42" s="158"/>
+      <c r="BJ42" s="158"/>
+      <c r="BK42" s="158"/>
+      <c r="BL42" s="158"/>
+      <c r="BM42" s="159"/>
       <c r="BN42" s="60"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7940,15 +7934,15 @@
       <c r="BB43" s="64"/>
       <c r="BC43" s="64"/>
       <c r="BD43" s="67"/>
-      <c r="BE43" s="132"/>
-      <c r="BF43" s="132"/>
-      <c r="BG43" s="132"/>
-      <c r="BH43" s="132"/>
-      <c r="BI43" s="132"/>
-      <c r="BJ43" s="132"/>
-      <c r="BK43" s="132"/>
-      <c r="BL43" s="132"/>
-      <c r="BM43" s="133"/>
+      <c r="BE43" s="177"/>
+      <c r="BF43" s="177"/>
+      <c r="BG43" s="177"/>
+      <c r="BH43" s="177"/>
+      <c r="BI43" s="177"/>
+      <c r="BJ43" s="177"/>
+      <c r="BK43" s="177"/>
+      <c r="BL43" s="177"/>
+      <c r="BM43" s="178"/>
       <c r="BN43" s="65"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7996,11 +7990,27 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
     <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8013,27 +8023,11 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8319,34 +8313,34 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -8373,32 +8367,32 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -8425,166 +8419,166 @@
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="177"/>
-      <c r="AK4" s="177"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="177"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="152" t="s">
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138"/>
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="150">
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="143">
         <v>45447</v>
       </c>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="152" t="s">
+      <c r="BA4" s="144"/>
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BE4" s="144"/>
+      <c r="BF4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="155" t="s">
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="156"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
+      <c r="BM4" s="144"/>
+      <c r="BN4" s="149"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="157" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="163" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="147"/>
-      <c r="BA5" s="147"/>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="140"/>
+      <c r="BA5" s="140"/>
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="148"/>
-      <c r="BK5" s="148"/>
-      <c r="BL5" s="148"/>
-      <c r="BM5" s="148"/>
-      <c r="BN5" s="149"/>
+      <c r="BG5" s="140"/>
+      <c r="BH5" s="157"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="141"/>
+      <c r="BK5" s="141"/>
+      <c r="BL5" s="141"/>
+      <c r="BM5" s="141"/>
+      <c r="BN5" s="142"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
@@ -8628,36 +8622,36 @@
       <c r="AM6" s="59"/>
       <c r="AN6" s="59"/>
       <c r="AO6" s="59"/>
-      <c r="AP6" s="194" t="s">
+      <c r="AP6" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="AQ6" s="195"/>
-      <c r="AR6" s="195"/>
-      <c r="AS6" s="196" t="s">
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197"/>
-      <c r="AW6" s="197"/>
-      <c r="AX6" s="197"/>
-      <c r="AY6" s="197"/>
-      <c r="AZ6" s="197"/>
-      <c r="BA6" s="197"/>
-      <c r="BB6" s="197"/>
-      <c r="BC6" s="197"/>
-      <c r="BD6" s="197"/>
-      <c r="BE6" s="196" t="s">
+      <c r="AT6" s="199"/>
+      <c r="AU6" s="199"/>
+      <c r="AV6" s="199"/>
+      <c r="AW6" s="199"/>
+      <c r="AX6" s="199"/>
+      <c r="AY6" s="199"/>
+      <c r="AZ6" s="199"/>
+      <c r="BA6" s="199"/>
+      <c r="BB6" s="199"/>
+      <c r="BC6" s="199"/>
+      <c r="BD6" s="199"/>
+      <c r="BE6" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="195"/>
-      <c r="BI6" s="195"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="195"/>
-      <c r="BL6" s="195"/>
-      <c r="BM6" s="195"/>
+      <c r="BF6" s="197"/>
+      <c r="BG6" s="197"/>
+      <c r="BH6" s="197"/>
+      <c r="BI6" s="197"/>
+      <c r="BJ6" s="197"/>
+      <c r="BK6" s="197"/>
+      <c r="BL6" s="197"/>
+      <c r="BM6" s="197"/>
       <c r="BN6" s="60"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8707,31 +8701,31 @@
       </c>
       <c r="AQ7" s="180"/>
       <c r="AR7" s="181"/>
-      <c r="AS7" s="198" t="s">
+      <c r="AS7" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="AT7" s="199"/>
-      <c r="AU7" s="199"/>
-      <c r="AV7" s="199"/>
-      <c r="AW7" s="199"/>
-      <c r="AX7" s="199"/>
-      <c r="AY7" s="199"/>
-      <c r="AZ7" s="199"/>
-      <c r="BA7" s="199"/>
-      <c r="BB7" s="199"/>
-      <c r="BC7" s="199"/>
-      <c r="BD7" s="200"/>
-      <c r="BE7" s="198" t="s">
+      <c r="AT7" s="201"/>
+      <c r="AU7" s="201"/>
+      <c r="AV7" s="201"/>
+      <c r="AW7" s="201"/>
+      <c r="AX7" s="201"/>
+      <c r="AY7" s="201"/>
+      <c r="AZ7" s="201"/>
+      <c r="BA7" s="201"/>
+      <c r="BB7" s="201"/>
+      <c r="BC7" s="201"/>
+      <c r="BD7" s="202"/>
+      <c r="BE7" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="BF7" s="199"/>
-      <c r="BG7" s="199"/>
-      <c r="BH7" s="199"/>
-      <c r="BI7" s="199"/>
-      <c r="BJ7" s="199"/>
-      <c r="BK7" s="199"/>
-      <c r="BL7" s="199"/>
-      <c r="BM7" s="200"/>
+      <c r="BF7" s="201"/>
+      <c r="BG7" s="201"/>
+      <c r="BH7" s="201"/>
+      <c r="BI7" s="201"/>
+      <c r="BJ7" s="201"/>
+      <c r="BK7" s="201"/>
+      <c r="BL7" s="201"/>
+      <c r="BM7" s="202"/>
       <c r="BN7" s="60"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8781,31 +8775,31 @@
       </c>
       <c r="AQ8" s="180"/>
       <c r="AR8" s="181"/>
-      <c r="AS8" s="188" t="s">
+      <c r="AS8" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="AT8" s="189"/>
-      <c r="AU8" s="189"/>
-      <c r="AV8" s="189"/>
-      <c r="AW8" s="189"/>
-      <c r="AX8" s="189"/>
-      <c r="AY8" s="189"/>
-      <c r="AZ8" s="189"/>
-      <c r="BA8" s="189"/>
-      <c r="BB8" s="189"/>
-      <c r="BC8" s="189"/>
-      <c r="BD8" s="190"/>
-      <c r="BE8" s="188" t="s">
+      <c r="AT8" s="191"/>
+      <c r="AU8" s="191"/>
+      <c r="AV8" s="191"/>
+      <c r="AW8" s="191"/>
+      <c r="AX8" s="191"/>
+      <c r="AY8" s="191"/>
+      <c r="AZ8" s="191"/>
+      <c r="BA8" s="191"/>
+      <c r="BB8" s="191"/>
+      <c r="BC8" s="191"/>
+      <c r="BD8" s="192"/>
+      <c r="BE8" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="BF8" s="189"/>
-      <c r="BG8" s="189"/>
-      <c r="BH8" s="189"/>
-      <c r="BI8" s="189"/>
-      <c r="BJ8" s="189"/>
-      <c r="BK8" s="189"/>
-      <c r="BL8" s="189"/>
-      <c r="BM8" s="190"/>
+      <c r="BF8" s="191"/>
+      <c r="BG8" s="191"/>
+      <c r="BH8" s="191"/>
+      <c r="BI8" s="191"/>
+      <c r="BJ8" s="191"/>
+      <c r="BK8" s="191"/>
+      <c r="BL8" s="191"/>
+      <c r="BM8" s="192"/>
       <c r="BN8" s="60"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8855,31 +8849,31 @@
       </c>
       <c r="AQ9" s="180"/>
       <c r="AR9" s="181"/>
-      <c r="AS9" s="188" t="s">
+      <c r="AS9" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="AT9" s="189"/>
-      <c r="AU9" s="189"/>
-      <c r="AV9" s="189"/>
-      <c r="AW9" s="189"/>
-      <c r="AX9" s="189"/>
-      <c r="AY9" s="189"/>
-      <c r="AZ9" s="189"/>
-      <c r="BA9" s="189"/>
-      <c r="BB9" s="189"/>
-      <c r="BC9" s="189"/>
-      <c r="BD9" s="190"/>
-      <c r="BE9" s="188" t="s">
+      <c r="AT9" s="191"/>
+      <c r="AU9" s="191"/>
+      <c r="AV9" s="191"/>
+      <c r="AW9" s="191"/>
+      <c r="AX9" s="191"/>
+      <c r="AY9" s="191"/>
+      <c r="AZ9" s="191"/>
+      <c r="BA9" s="191"/>
+      <c r="BB9" s="191"/>
+      <c r="BC9" s="191"/>
+      <c r="BD9" s="192"/>
+      <c r="BE9" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="BF9" s="189"/>
-      <c r="BG9" s="189"/>
-      <c r="BH9" s="189"/>
-      <c r="BI9" s="189"/>
-      <c r="BJ9" s="189"/>
-      <c r="BK9" s="189"/>
-      <c r="BL9" s="189"/>
-      <c r="BM9" s="190"/>
+      <c r="BF9" s="191"/>
+      <c r="BG9" s="191"/>
+      <c r="BH9" s="191"/>
+      <c r="BI9" s="191"/>
+      <c r="BJ9" s="191"/>
+      <c r="BK9" s="191"/>
+      <c r="BL9" s="191"/>
+      <c r="BM9" s="192"/>
       <c r="BN9" s="60"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8897,10 +8891,10 @@
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
       <c r="N10" s="93"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="201"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
       <c r="S10" s="88"/>
       <c r="T10" s="88"/>
       <c r="U10" s="88"/>
@@ -8929,31 +8923,31 @@
       </c>
       <c r="AQ10" s="180"/>
       <c r="AR10" s="181"/>
-      <c r="AS10" s="188" t="s">
+      <c r="AS10" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="AT10" s="189"/>
-      <c r="AU10" s="189"/>
-      <c r="AV10" s="189"/>
-      <c r="AW10" s="189"/>
-      <c r="AX10" s="189"/>
-      <c r="AY10" s="189"/>
-      <c r="AZ10" s="189"/>
-      <c r="BA10" s="189"/>
-      <c r="BB10" s="189"/>
-      <c r="BC10" s="189"/>
-      <c r="BD10" s="190"/>
-      <c r="BE10" s="191" t="s">
+      <c r="AT10" s="191"/>
+      <c r="AU10" s="191"/>
+      <c r="AV10" s="191"/>
+      <c r="AW10" s="191"/>
+      <c r="AX10" s="191"/>
+      <c r="AY10" s="191"/>
+      <c r="AZ10" s="191"/>
+      <c r="BA10" s="191"/>
+      <c r="BB10" s="191"/>
+      <c r="BC10" s="191"/>
+      <c r="BD10" s="192"/>
+      <c r="BE10" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="BF10" s="192"/>
-      <c r="BG10" s="192"/>
-      <c r="BH10" s="192"/>
-      <c r="BI10" s="192"/>
-      <c r="BJ10" s="192"/>
-      <c r="BK10" s="192"/>
-      <c r="BL10" s="192"/>
-      <c r="BM10" s="193"/>
+      <c r="BF10" s="204"/>
+      <c r="BG10" s="204"/>
+      <c r="BH10" s="204"/>
+      <c r="BI10" s="204"/>
+      <c r="BJ10" s="204"/>
+      <c r="BK10" s="204"/>
+      <c r="BL10" s="204"/>
+      <c r="BM10" s="205"/>
       <c r="BN10" s="60"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9003,31 +8997,31 @@
       </c>
       <c r="AQ11" s="180"/>
       <c r="AR11" s="181"/>
-      <c r="AS11" s="188" t="s">
+      <c r="AS11" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="AT11" s="189"/>
-      <c r="AU11" s="189"/>
-      <c r="AV11" s="189"/>
-      <c r="AW11" s="189"/>
-      <c r="AX11" s="189"/>
-      <c r="AY11" s="189"/>
-      <c r="AZ11" s="189"/>
-      <c r="BA11" s="189"/>
-      <c r="BB11" s="189"/>
-      <c r="BC11" s="189"/>
-      <c r="BD11" s="190"/>
-      <c r="BE11" s="188" t="s">
+      <c r="AT11" s="191"/>
+      <c r="AU11" s="191"/>
+      <c r="AV11" s="191"/>
+      <c r="AW11" s="191"/>
+      <c r="AX11" s="191"/>
+      <c r="AY11" s="191"/>
+      <c r="AZ11" s="191"/>
+      <c r="BA11" s="191"/>
+      <c r="BB11" s="191"/>
+      <c r="BC11" s="191"/>
+      <c r="BD11" s="192"/>
+      <c r="BE11" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="BF11" s="189"/>
-      <c r="BG11" s="189"/>
-      <c r="BH11" s="189"/>
-      <c r="BI11" s="189"/>
-      <c r="BJ11" s="189"/>
-      <c r="BK11" s="189"/>
-      <c r="BL11" s="189"/>
-      <c r="BM11" s="190"/>
+      <c r="BF11" s="191"/>
+      <c r="BG11" s="191"/>
+      <c r="BH11" s="191"/>
+      <c r="BI11" s="191"/>
+      <c r="BJ11" s="191"/>
+      <c r="BK11" s="191"/>
+      <c r="BL11" s="191"/>
+      <c r="BM11" s="192"/>
       <c r="BN11" s="60"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9077,31 +9071,31 @@
       </c>
       <c r="AQ12" s="180"/>
       <c r="AR12" s="181"/>
-      <c r="AS12" s="188" t="s">
+      <c r="AS12" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="AT12" s="189"/>
-      <c r="AU12" s="189"/>
-      <c r="AV12" s="189"/>
-      <c r="AW12" s="189"/>
-      <c r="AX12" s="189"/>
-      <c r="AY12" s="189"/>
-      <c r="AZ12" s="189"/>
-      <c r="BA12" s="189"/>
-      <c r="BB12" s="189"/>
-      <c r="BC12" s="189"/>
-      <c r="BD12" s="190"/>
-      <c r="BE12" s="188" t="s">
+      <c r="AT12" s="191"/>
+      <c r="AU12" s="191"/>
+      <c r="AV12" s="191"/>
+      <c r="AW12" s="191"/>
+      <c r="AX12" s="191"/>
+      <c r="AY12" s="191"/>
+      <c r="AZ12" s="191"/>
+      <c r="BA12" s="191"/>
+      <c r="BB12" s="191"/>
+      <c r="BC12" s="191"/>
+      <c r="BD12" s="192"/>
+      <c r="BE12" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="BF12" s="189"/>
-      <c r="BG12" s="189"/>
-      <c r="BH12" s="189"/>
-      <c r="BI12" s="189"/>
-      <c r="BJ12" s="189"/>
-      <c r="BK12" s="189"/>
-      <c r="BL12" s="189"/>
-      <c r="BM12" s="190"/>
+      <c r="BF12" s="191"/>
+      <c r="BG12" s="191"/>
+      <c r="BH12" s="191"/>
+      <c r="BI12" s="191"/>
+      <c r="BJ12" s="191"/>
+      <c r="BK12" s="191"/>
+      <c r="BL12" s="191"/>
+      <c r="BM12" s="192"/>
       <c r="BN12" s="60"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9151,31 +9145,31 @@
       </c>
       <c r="AQ13" s="180"/>
       <c r="AR13" s="181"/>
-      <c r="AS13" s="203" t="s">
+      <c r="AS13" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="AT13" s="204"/>
-      <c r="AU13" s="204"/>
-      <c r="AV13" s="204"/>
-      <c r="AW13" s="204"/>
-      <c r="AX13" s="204"/>
-      <c r="AY13" s="204"/>
-      <c r="AZ13" s="204"/>
-      <c r="BA13" s="204"/>
-      <c r="BB13" s="204"/>
-      <c r="BC13" s="204"/>
-      <c r="BD13" s="205"/>
-      <c r="BE13" s="188" t="s">
+      <c r="AT13" s="194"/>
+      <c r="AU13" s="194"/>
+      <c r="AV13" s="194"/>
+      <c r="AW13" s="194"/>
+      <c r="AX13" s="194"/>
+      <c r="AY13" s="194"/>
+      <c r="AZ13" s="194"/>
+      <c r="BA13" s="194"/>
+      <c r="BB13" s="194"/>
+      <c r="BC13" s="194"/>
+      <c r="BD13" s="195"/>
+      <c r="BE13" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="BF13" s="189"/>
-      <c r="BG13" s="189"/>
-      <c r="BH13" s="189"/>
-      <c r="BI13" s="189"/>
-      <c r="BJ13" s="189"/>
-      <c r="BK13" s="189"/>
-      <c r="BL13" s="189"/>
-      <c r="BM13" s="190"/>
+      <c r="BF13" s="191"/>
+      <c r="BG13" s="191"/>
+      <c r="BH13" s="191"/>
+      <c r="BI13" s="191"/>
+      <c r="BJ13" s="191"/>
+      <c r="BK13" s="191"/>
+      <c r="BL13" s="191"/>
+      <c r="BM13" s="192"/>
       <c r="BN13" s="60"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9598,15 +9592,15 @@
       <c r="BB20" s="61"/>
       <c r="BC20" s="61"/>
       <c r="BD20" s="61"/>
-      <c r="BE20" s="126"/>
-      <c r="BF20" s="126"/>
-      <c r="BG20" s="126"/>
-      <c r="BH20" s="126"/>
-      <c r="BI20" s="126"/>
-      <c r="BJ20" s="126"/>
-      <c r="BK20" s="126"/>
-      <c r="BL20" s="126"/>
-      <c r="BM20" s="202"/>
+      <c r="BE20" s="158"/>
+      <c r="BF20" s="158"/>
+      <c r="BG20" s="158"/>
+      <c r="BH20" s="158"/>
+      <c r="BI20" s="158"/>
+      <c r="BJ20" s="158"/>
+      <c r="BK20" s="158"/>
+      <c r="BL20" s="158"/>
+      <c r="BM20" s="189"/>
       <c r="BN20" s="60"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9666,15 +9660,15 @@
       <c r="BB21" s="61"/>
       <c r="BC21" s="61"/>
       <c r="BD21" s="61"/>
-      <c r="BE21" s="141"/>
-      <c r="BF21" s="142"/>
-      <c r="BG21" s="142"/>
-      <c r="BH21" s="142"/>
-      <c r="BI21" s="142"/>
-      <c r="BJ21" s="142"/>
-      <c r="BK21" s="142"/>
-      <c r="BL21" s="142"/>
-      <c r="BM21" s="143"/>
+      <c r="BE21" s="165"/>
+      <c r="BF21" s="166"/>
+      <c r="BG21" s="166"/>
+      <c r="BH21" s="166"/>
+      <c r="BI21" s="166"/>
+      <c r="BJ21" s="166"/>
+      <c r="BK21" s="166"/>
+      <c r="BL21" s="166"/>
+      <c r="BM21" s="167"/>
       <c r="BN21" s="60"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9734,15 +9728,15 @@
       <c r="BB22" s="61"/>
       <c r="BC22" s="61"/>
       <c r="BD22" s="61"/>
-      <c r="BE22" s="144"/>
-      <c r="BF22" s="145"/>
-      <c r="BG22" s="145"/>
-      <c r="BH22" s="145"/>
-      <c r="BI22" s="145"/>
-      <c r="BJ22" s="145"/>
-      <c r="BK22" s="145"/>
-      <c r="BL22" s="145"/>
-      <c r="BM22" s="146"/>
+      <c r="BE22" s="168"/>
+      <c r="BF22" s="169"/>
+      <c r="BG22" s="169"/>
+      <c r="BH22" s="169"/>
+      <c r="BI22" s="169"/>
+      <c r="BJ22" s="169"/>
+      <c r="BK22" s="169"/>
+      <c r="BL22" s="169"/>
+      <c r="BM22" s="170"/>
       <c r="BN22" s="60"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9802,15 +9796,15 @@
       <c r="BB23" s="61"/>
       <c r="BC23" s="61"/>
       <c r="BD23" s="61"/>
-      <c r="BE23" s="140"/>
-      <c r="BF23" s="126"/>
-      <c r="BG23" s="126"/>
-      <c r="BH23" s="126"/>
-      <c r="BI23" s="126"/>
-      <c r="BJ23" s="126"/>
-      <c r="BK23" s="126"/>
-      <c r="BL23" s="126"/>
-      <c r="BM23" s="127"/>
+      <c r="BE23" s="163"/>
+      <c r="BF23" s="158"/>
+      <c r="BG23" s="158"/>
+      <c r="BH23" s="158"/>
+      <c r="BI23" s="158"/>
+      <c r="BJ23" s="158"/>
+      <c r="BK23" s="158"/>
+      <c r="BL23" s="158"/>
+      <c r="BM23" s="159"/>
       <c r="BN23" s="60"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9870,15 +9864,15 @@
       <c r="BB24" s="61"/>
       <c r="BC24" s="61"/>
       <c r="BD24" s="61"/>
-      <c r="BE24" s="128"/>
-      <c r="BF24" s="129"/>
-      <c r="BG24" s="129"/>
-      <c r="BH24" s="129"/>
-      <c r="BI24" s="129"/>
-      <c r="BJ24" s="129"/>
-      <c r="BK24" s="129"/>
-      <c r="BL24" s="129"/>
-      <c r="BM24" s="130"/>
+      <c r="BE24" s="160"/>
+      <c r="BF24" s="161"/>
+      <c r="BG24" s="161"/>
+      <c r="BH24" s="161"/>
+      <c r="BI24" s="161"/>
+      <c r="BJ24" s="161"/>
+      <c r="BK24" s="161"/>
+      <c r="BL24" s="161"/>
+      <c r="BM24" s="162"/>
       <c r="BN24" s="60"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9938,15 +9932,15 @@
       <c r="BB25" s="61"/>
       <c r="BC25" s="61"/>
       <c r="BD25" s="66"/>
-      <c r="BE25" s="126"/>
-      <c r="BF25" s="126"/>
-      <c r="BG25" s="126"/>
-      <c r="BH25" s="126"/>
-      <c r="BI25" s="126"/>
-      <c r="BJ25" s="126"/>
-      <c r="BK25" s="126"/>
-      <c r="BL25" s="126"/>
-      <c r="BM25" s="127"/>
+      <c r="BE25" s="158"/>
+      <c r="BF25" s="158"/>
+      <c r="BG25" s="158"/>
+      <c r="BH25" s="158"/>
+      <c r="BI25" s="158"/>
+      <c r="BJ25" s="158"/>
+      <c r="BK25" s="158"/>
+      <c r="BL25" s="158"/>
+      <c r="BM25" s="159"/>
       <c r="BN25" s="60"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10006,15 +10000,15 @@
       <c r="BB26" s="61"/>
       <c r="BC26" s="61"/>
       <c r="BD26" s="61"/>
-      <c r="BE26" s="128"/>
-      <c r="BF26" s="129"/>
-      <c r="BG26" s="129"/>
-      <c r="BH26" s="129"/>
-      <c r="BI26" s="129"/>
-      <c r="BJ26" s="129"/>
-      <c r="BK26" s="129"/>
-      <c r="BL26" s="129"/>
-      <c r="BM26" s="130"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="161"/>
+      <c r="BG26" s="161"/>
+      <c r="BH26" s="161"/>
+      <c r="BI26" s="161"/>
+      <c r="BJ26" s="161"/>
+      <c r="BK26" s="161"/>
+      <c r="BL26" s="161"/>
+      <c r="BM26" s="162"/>
       <c r="BN26" s="60"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10074,15 +10068,15 @@
       <c r="BB27" s="61"/>
       <c r="BC27" s="61"/>
       <c r="BD27" s="66"/>
-      <c r="BE27" s="126"/>
-      <c r="BF27" s="126"/>
-      <c r="BG27" s="126"/>
-      <c r="BH27" s="126"/>
-      <c r="BI27" s="126"/>
-      <c r="BJ27" s="126"/>
-      <c r="BK27" s="126"/>
-      <c r="BL27" s="126"/>
-      <c r="BM27" s="127"/>
+      <c r="BE27" s="158"/>
+      <c r="BF27" s="158"/>
+      <c r="BG27" s="158"/>
+      <c r="BH27" s="158"/>
+      <c r="BI27" s="158"/>
+      <c r="BJ27" s="158"/>
+      <c r="BK27" s="158"/>
+      <c r="BL27" s="158"/>
+      <c r="BM27" s="159"/>
       <c r="BN27" s="60"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10142,15 +10136,15 @@
       <c r="BB28" s="61"/>
       <c r="BC28" s="61"/>
       <c r="BD28" s="61"/>
-      <c r="BE28" s="128"/>
-      <c r="BF28" s="129"/>
-      <c r="BG28" s="129"/>
-      <c r="BH28" s="129"/>
-      <c r="BI28" s="129"/>
-      <c r="BJ28" s="129"/>
-      <c r="BK28" s="129"/>
-      <c r="BL28" s="129"/>
-      <c r="BM28" s="130"/>
+      <c r="BE28" s="160"/>
+      <c r="BF28" s="161"/>
+      <c r="BG28" s="161"/>
+      <c r="BH28" s="161"/>
+      <c r="BI28" s="161"/>
+      <c r="BJ28" s="161"/>
+      <c r="BK28" s="161"/>
+      <c r="BL28" s="161"/>
+      <c r="BM28" s="162"/>
       <c r="BN28" s="60"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10210,15 +10204,15 @@
       <c r="BB29" s="61"/>
       <c r="BC29" s="61"/>
       <c r="BD29" s="66"/>
-      <c r="BE29" s="126"/>
-      <c r="BF29" s="126"/>
-      <c r="BG29" s="126"/>
-      <c r="BH29" s="126"/>
-      <c r="BI29" s="126"/>
-      <c r="BJ29" s="126"/>
-      <c r="BK29" s="126"/>
-      <c r="BL29" s="126"/>
-      <c r="BM29" s="127"/>
+      <c r="BE29" s="158"/>
+      <c r="BF29" s="158"/>
+      <c r="BG29" s="158"/>
+      <c r="BH29" s="158"/>
+      <c r="BI29" s="158"/>
+      <c r="BJ29" s="158"/>
+      <c r="BK29" s="158"/>
+      <c r="BL29" s="158"/>
+      <c r="BM29" s="159"/>
       <c r="BN29" s="60"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10278,15 +10272,15 @@
       <c r="BB30" s="61"/>
       <c r="BC30" s="61"/>
       <c r="BD30" s="61"/>
-      <c r="BE30" s="128"/>
-      <c r="BF30" s="129"/>
-      <c r="BG30" s="129"/>
-      <c r="BH30" s="129"/>
-      <c r="BI30" s="129"/>
-      <c r="BJ30" s="129"/>
-      <c r="BK30" s="129"/>
-      <c r="BL30" s="129"/>
-      <c r="BM30" s="130"/>
+      <c r="BE30" s="160"/>
+      <c r="BF30" s="161"/>
+      <c r="BG30" s="161"/>
+      <c r="BH30" s="161"/>
+      <c r="BI30" s="161"/>
+      <c r="BJ30" s="161"/>
+      <c r="BK30" s="161"/>
+      <c r="BL30" s="161"/>
+      <c r="BM30" s="162"/>
       <c r="BN30" s="60"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10346,15 +10340,15 @@
       <c r="BB31" s="61"/>
       <c r="BC31" s="61"/>
       <c r="BD31" s="61"/>
-      <c r="BE31" s="131"/>
-      <c r="BF31" s="126"/>
-      <c r="BG31" s="126"/>
-      <c r="BH31" s="126"/>
-      <c r="BI31" s="126"/>
-      <c r="BJ31" s="126"/>
-      <c r="BK31" s="126"/>
-      <c r="BL31" s="126"/>
-      <c r="BM31" s="127"/>
+      <c r="BE31" s="164"/>
+      <c r="BF31" s="158"/>
+      <c r="BG31" s="158"/>
+      <c r="BH31" s="158"/>
+      <c r="BI31" s="158"/>
+      <c r="BJ31" s="158"/>
+      <c r="BK31" s="158"/>
+      <c r="BL31" s="158"/>
+      <c r="BM31" s="159"/>
       <c r="BN31" s="60"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10414,15 +10408,15 @@
       <c r="BB32" s="61"/>
       <c r="BC32" s="61"/>
       <c r="BD32" s="61"/>
-      <c r="BE32" s="131"/>
-      <c r="BF32" s="126"/>
-      <c r="BG32" s="126"/>
-      <c r="BH32" s="126"/>
-      <c r="BI32" s="126"/>
-      <c r="BJ32" s="126"/>
-      <c r="BK32" s="126"/>
-      <c r="BL32" s="126"/>
-      <c r="BM32" s="127"/>
+      <c r="BE32" s="164"/>
+      <c r="BF32" s="158"/>
+      <c r="BG32" s="158"/>
+      <c r="BH32" s="158"/>
+      <c r="BI32" s="158"/>
+      <c r="BJ32" s="158"/>
+      <c r="BK32" s="158"/>
+      <c r="BL32" s="158"/>
+      <c r="BM32" s="159"/>
       <c r="BN32" s="65"/>
     </row>
     <row r="33" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10482,18 +10476,67 @@
       <c r="BB33" s="64"/>
       <c r="BC33" s="64"/>
       <c r="BD33" s="67"/>
-      <c r="BE33" s="132"/>
-      <c r="BF33" s="132"/>
-      <c r="BG33" s="132"/>
-      <c r="BH33" s="132"/>
-      <c r="BI33" s="132"/>
-      <c r="BJ33" s="132"/>
-      <c r="BK33" s="132"/>
-      <c r="BL33" s="132"/>
-      <c r="BM33" s="133"/>
+      <c r="BE33" s="177"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AS9:BD9"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:BD11"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="BE14:BM14"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="AS16:BD16"/>
     <mergeCell ref="BE16:BM16"/>
@@ -10510,55 +10553,6 @@
     <mergeCell ref="AS12:BD12"/>
     <mergeCell ref="BE12:BM12"/>
     <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="BE14:BM14"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:BD11"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="AP12:AR12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10571,8 +10565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BN27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -10903,34 +10897,34 @@
       <c r="BM1" s="31"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
       <c r="AS2" s="25"/>
@@ -10956,32 +10950,32 @@
       <c r="BM2" s="31"/>
     </row>
     <row r="3" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
@@ -11007,166 +11001,166 @@
       <c r="BM3" s="32"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="177"/>
-      <c r="AK4" s="177"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="177"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="152" t="s">
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138"/>
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="150">
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="143">
         <v>45447</v>
       </c>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="152" t="s">
+      <c r="BA4" s="144"/>
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BE4" s="144"/>
+      <c r="BF4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="155" t="s">
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="156"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
+      <c r="BM4" s="144"/>
+      <c r="BN4" s="149"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="157" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="163" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="147"/>
-      <c r="BA5" s="147"/>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="140"/>
+      <c r="BA5" s="140"/>
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="148"/>
-      <c r="BK5" s="148"/>
-      <c r="BL5" s="148"/>
-      <c r="BM5" s="148"/>
-      <c r="BN5" s="149"/>
+      <c r="BG5" s="140"/>
+      <c r="BH5" s="157"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="141"/>
+      <c r="BK5" s="141"/>
+      <c r="BL5" s="141"/>
+      <c r="BM5" s="141"/>
+      <c r="BN5" s="142"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
@@ -12638,6 +12632,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AR6:BC6"/>
     <mergeCell ref="BD6:BL6"/>
@@ -12648,16 +12652,6 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI4:BN4"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12878,35 +12872,35 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -12934,33 +12928,33 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="226"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="226"/>
+      <c r="A3" s="250"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="251"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="251"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
       <c r="AD3" s="50"/>
@@ -13002,166 +12996,166 @@
       <c r="BN3" s="52"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="177"/>
-      <c r="AK4" s="177"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="177"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="152" t="s">
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138"/>
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138"/>
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138"/>
+      <c r="AS4" s="138"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="150">
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="143">
         <v>45447</v>
       </c>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="152" t="s">
+      <c r="BA4" s="144"/>
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BE4" s="144"/>
+      <c r="BF4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="155" t="s">
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="156"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
+      <c r="BM4" s="144"/>
+      <c r="BN4" s="149"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="157" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="163" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="141"/>
+      <c r="AO5" s="141"/>
+      <c r="AP5" s="141"/>
+      <c r="AQ5" s="141"/>
+      <c r="AR5" s="141"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="147"/>
-      <c r="BA5" s="147"/>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="140"/>
+      <c r="BA5" s="140"/>
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="148"/>
-      <c r="BK5" s="148"/>
-      <c r="BL5" s="148"/>
-      <c r="BM5" s="148"/>
-      <c r="BN5" s="149"/>
+      <c r="BG5" s="140"/>
+      <c r="BH5" s="157"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="141"/>
+      <c r="BK5" s="141"/>
+      <c r="BL5" s="141"/>
+      <c r="BM5" s="141"/>
+      <c r="BN5" s="142"/>
     </row>
     <row r="6" spans="1:66" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="53"/>
@@ -13232,252 +13226,252 @@
       <c r="BN6" s="68"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="228"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="228"/>
-      <c r="T7" s="228"/>
-      <c r="U7" s="228"/>
-      <c r="V7" s="228"/>
-      <c r="W7" s="228"/>
-      <c r="X7" s="228"/>
-      <c r="Y7" s="228"/>
-      <c r="Z7" s="228"/>
-      <c r="AA7" s="228"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="227" t="s">
+      <c r="B7" s="257"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="257"/>
+      <c r="V7" s="257"/>
+      <c r="W7" s="257"/>
+      <c r="X7" s="257"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="257"/>
+      <c r="AA7" s="257"/>
+      <c r="AB7" s="258"/>
+      <c r="AC7" s="256" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="228"/>
-      <c r="AE7" s="228"/>
-      <c r="AF7" s="228"/>
-      <c r="AG7" s="228"/>
-      <c r="AH7" s="228"/>
-      <c r="AI7" s="228"/>
-      <c r="AJ7" s="228"/>
-      <c r="AK7" s="228"/>
-      <c r="AL7" s="228"/>
-      <c r="AM7" s="228"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="231" t="s">
+      <c r="AD7" s="257"/>
+      <c r="AE7" s="257"/>
+      <c r="AF7" s="257"/>
+      <c r="AG7" s="257"/>
+      <c r="AH7" s="257"/>
+      <c r="AI7" s="257"/>
+      <c r="AJ7" s="257"/>
+      <c r="AK7" s="257"/>
+      <c r="AL7" s="257"/>
+      <c r="AM7" s="257"/>
+      <c r="AN7" s="259"/>
+      <c r="AO7" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="AP7" s="232"/>
-      <c r="AQ7" s="232"/>
-      <c r="AR7" s="232"/>
-      <c r="AS7" s="232"/>
-      <c r="AT7" s="232"/>
-      <c r="AU7" s="232"/>
-      <c r="AV7" s="232"/>
-      <c r="AW7" s="232"/>
-      <c r="AX7" s="232"/>
-      <c r="AY7" s="232"/>
-      <c r="AZ7" s="232"/>
-      <c r="BA7" s="232"/>
-      <c r="BB7" s="232"/>
-      <c r="BC7" s="232"/>
-      <c r="BD7" s="232"/>
-      <c r="BE7" s="232"/>
-      <c r="BF7" s="232"/>
-      <c r="BG7" s="232"/>
-      <c r="BH7" s="232"/>
-      <c r="BI7" s="232"/>
-      <c r="BJ7" s="232"/>
-      <c r="BK7" s="232"/>
-      <c r="BL7" s="233"/>
-      <c r="BM7" s="231"/>
-      <c r="BN7" s="237"/>
+      <c r="AP7" s="260"/>
+      <c r="AQ7" s="260"/>
+      <c r="AR7" s="260"/>
+      <c r="AS7" s="260"/>
+      <c r="AT7" s="260"/>
+      <c r="AU7" s="260"/>
+      <c r="AV7" s="260"/>
+      <c r="AW7" s="260"/>
+      <c r="AX7" s="260"/>
+      <c r="AY7" s="260"/>
+      <c r="AZ7" s="260"/>
+      <c r="BA7" s="260"/>
+      <c r="BB7" s="260"/>
+      <c r="BC7" s="260"/>
+      <c r="BD7" s="260"/>
+      <c r="BE7" s="260"/>
+      <c r="BF7" s="260"/>
+      <c r="BG7" s="260"/>
+      <c r="BH7" s="260"/>
+      <c r="BI7" s="260"/>
+      <c r="BJ7" s="260"/>
+      <c r="BK7" s="260"/>
+      <c r="BL7" s="261"/>
+      <c r="BM7" s="237"/>
+      <c r="BN7" s="238"/>
     </row>
     <row r="8" spans="1:66" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="243" t="s">
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
-      <c r="P8" s="245"/>
-      <c r="Q8" s="243" t="s">
+      <c r="N8" s="245"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="245"/>
-      <c r="S8" s="243" t="s">
+      <c r="R8" s="246"/>
+      <c r="S8" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="245"/>
-      <c r="U8" s="243" t="s">
+      <c r="T8" s="246"/>
+      <c r="U8" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="245"/>
-      <c r="W8" s="243" t="s">
+      <c r="V8" s="246"/>
+      <c r="W8" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="245"/>
-      <c r="Y8" s="240" t="s">
+      <c r="X8" s="246"/>
+      <c r="Y8" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="246"/>
-      <c r="AC8" s="247" t="s">
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="242"/>
-      <c r="AH8" s="244" t="s">
+      <c r="AD8" s="242"/>
+      <c r="AE8" s="242"/>
+      <c r="AF8" s="242"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="244"/>
-      <c r="AJ8" s="244"/>
-      <c r="AK8" s="244"/>
-      <c r="AL8" s="244"/>
-      <c r="AM8" s="244"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="234"/>
-      <c r="AP8" s="235"/>
-      <c r="AQ8" s="235"/>
-      <c r="AR8" s="235"/>
-      <c r="AS8" s="235"/>
-      <c r="AT8" s="235"/>
-      <c r="AU8" s="235"/>
-      <c r="AV8" s="235"/>
-      <c r="AW8" s="235"/>
-      <c r="AX8" s="235"/>
-      <c r="AY8" s="235"/>
-      <c r="AZ8" s="235"/>
-      <c r="BA8" s="235"/>
-      <c r="BB8" s="235"/>
-      <c r="BC8" s="235"/>
-      <c r="BD8" s="235"/>
-      <c r="BE8" s="235"/>
-      <c r="BF8" s="235"/>
-      <c r="BG8" s="235"/>
-      <c r="BH8" s="235"/>
-      <c r="BI8" s="235"/>
-      <c r="BJ8" s="235"/>
-      <c r="BK8" s="235"/>
-      <c r="BL8" s="236"/>
-      <c r="BM8" s="238"/>
-      <c r="BN8" s="239"/>
+      <c r="AI8" s="245"/>
+      <c r="AJ8" s="245"/>
+      <c r="AK8" s="245"/>
+      <c r="AL8" s="245"/>
+      <c r="AM8" s="245"/>
+      <c r="AN8" s="249"/>
+      <c r="AO8" s="262"/>
+      <c r="AP8" s="263"/>
+      <c r="AQ8" s="263"/>
+      <c r="AR8" s="263"/>
+      <c r="AS8" s="263"/>
+      <c r="AT8" s="263"/>
+      <c r="AU8" s="263"/>
+      <c r="AV8" s="263"/>
+      <c r="AW8" s="263"/>
+      <c r="AX8" s="263"/>
+      <c r="AY8" s="263"/>
+      <c r="AZ8" s="263"/>
+      <c r="BA8" s="263"/>
+      <c r="BB8" s="263"/>
+      <c r="BC8" s="263"/>
+      <c r="BD8" s="263"/>
+      <c r="BE8" s="263"/>
+      <c r="BF8" s="263"/>
+      <c r="BG8" s="263"/>
+      <c r="BH8" s="263"/>
+      <c r="BI8" s="263"/>
+      <c r="BJ8" s="263"/>
+      <c r="BK8" s="263"/>
+      <c r="BL8" s="249"/>
+      <c r="BM8" s="239"/>
+      <c r="BN8" s="240"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="253" t="s">
+      <c r="B9" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="211" t="s">
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="213"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="256">
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="231">
         <v>4</v>
       </c>
-      <c r="R9" s="257"/>
-      <c r="S9" s="211" t="s">
+      <c r="R9" s="232"/>
+      <c r="S9" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="212"/>
-      <c r="U9" s="258" t="s">
+      <c r="T9" s="210"/>
+      <c r="U9" s="233" t="s">
         <v>59</v>
       </c>
-      <c r="V9" s="259"/>
-      <c r="W9" s="211" t="s">
+      <c r="V9" s="221"/>
+      <c r="W9" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="211" t="s">
+      <c r="X9" s="210"/>
+      <c r="Y9" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="Z9" s="213"/>
-      <c r="AA9" s="213"/>
-      <c r="AB9" s="212"/>
-      <c r="AC9" s="208" t="s">
+      <c r="Z9" s="209"/>
+      <c r="AA9" s="209"/>
+      <c r="AB9" s="210"/>
+      <c r="AC9" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="209"/>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="210"/>
-      <c r="AH9" s="214" t="s">
+      <c r="AD9" s="212"/>
+      <c r="AE9" s="212"/>
+      <c r="AF9" s="212"/>
+      <c r="AG9" s="213"/>
+      <c r="AH9" s="252" t="s">
         <v>98</v>
       </c>
-      <c r="AI9" s="215"/>
-      <c r="AJ9" s="215"/>
-      <c r="AK9" s="215"/>
-      <c r="AL9" s="215"/>
-      <c r="AM9" s="215"/>
-      <c r="AN9" s="216"/>
-      <c r="AO9" s="217"/>
-      <c r="AP9" s="218"/>
-      <c r="AQ9" s="218"/>
-      <c r="AR9" s="218"/>
-      <c r="AS9" s="218"/>
-      <c r="AT9" s="218"/>
-      <c r="AU9" s="218"/>
-      <c r="AV9" s="218"/>
-      <c r="AW9" s="218"/>
-      <c r="AX9" s="218"/>
-      <c r="AY9" s="218"/>
-      <c r="AZ9" s="218"/>
-      <c r="BA9" s="218"/>
-      <c r="BB9" s="218"/>
-      <c r="BC9" s="218"/>
-      <c r="BD9" s="218"/>
-      <c r="BE9" s="218"/>
-      <c r="BF9" s="218"/>
-      <c r="BG9" s="218"/>
-      <c r="BH9" s="218"/>
-      <c r="BI9" s="218"/>
-      <c r="BJ9" s="218"/>
-      <c r="BK9" s="218"/>
-      <c r="BL9" s="218"/>
+      <c r="AI9" s="253"/>
+      <c r="AJ9" s="253"/>
+      <c r="AK9" s="253"/>
+      <c r="AL9" s="253"/>
+      <c r="AM9" s="253"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="255"/>
+      <c r="AP9" s="227"/>
+      <c r="AQ9" s="227"/>
+      <c r="AR9" s="227"/>
+      <c r="AS9" s="227"/>
+      <c r="AT9" s="227"/>
+      <c r="AU9" s="227"/>
+      <c r="AV9" s="227"/>
+      <c r="AW9" s="227"/>
+      <c r="AX9" s="227"/>
+      <c r="AY9" s="227"/>
+      <c r="AZ9" s="227"/>
+      <c r="BA9" s="227"/>
+      <c r="BB9" s="227"/>
+      <c r="BC9" s="227"/>
+      <c r="BD9" s="227"/>
+      <c r="BE9" s="227"/>
+      <c r="BF9" s="227"/>
+      <c r="BG9" s="227"/>
+      <c r="BH9" s="227"/>
+      <c r="BI9" s="227"/>
+      <c r="BJ9" s="227"/>
+      <c r="BK9" s="227"/>
+      <c r="BL9" s="227"/>
       <c r="BM9" s="69"/>
       <c r="BN9" s="70"/>
     </row>
@@ -13485,87 +13479,87 @@
       <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="211" t="s">
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="213"/>
-      <c r="O10" s="213"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="260">
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="236">
         <v>8</v>
       </c>
-      <c r="R10" s="257"/>
-      <c r="S10" s="251" t="s">
+      <c r="R10" s="232"/>
+      <c r="S10" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="252"/>
-      <c r="U10" s="261" t="s">
+      <c r="T10" s="219"/>
+      <c r="U10" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="259"/>
-      <c r="W10" s="211" t="s">
+      <c r="V10" s="221"/>
+      <c r="W10" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="211" t="s">
+      <c r="X10" s="210"/>
+      <c r="Y10" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="213"/>
-      <c r="AA10" s="213"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="208" t="s">
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="209"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD10" s="209"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="219" t="s">
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
+      <c r="AH10" s="214" t="s">
         <v>99</v>
       </c>
-      <c r="AI10" s="220"/>
-      <c r="AJ10" s="220"/>
-      <c r="AK10" s="220"/>
-      <c r="AL10" s="220"/>
-      <c r="AM10" s="220"/>
-      <c r="AN10" s="221"/>
-      <c r="AO10" s="222"/>
-      <c r="AP10" s="218"/>
-      <c r="AQ10" s="218"/>
-      <c r="AR10" s="218"/>
-      <c r="AS10" s="218"/>
-      <c r="AT10" s="218"/>
-      <c r="AU10" s="218"/>
-      <c r="AV10" s="218"/>
-      <c r="AW10" s="218"/>
-      <c r="AX10" s="218"/>
-      <c r="AY10" s="218"/>
-      <c r="AZ10" s="218"/>
-      <c r="BA10" s="218"/>
-      <c r="BB10" s="218"/>
-      <c r="BC10" s="218"/>
-      <c r="BD10" s="218"/>
-      <c r="BE10" s="218"/>
-      <c r="BF10" s="218"/>
-      <c r="BG10" s="218"/>
-      <c r="BH10" s="218"/>
-      <c r="BI10" s="218"/>
-      <c r="BJ10" s="218"/>
-      <c r="BK10" s="218"/>
-      <c r="BL10" s="218"/>
+      <c r="AI10" s="224"/>
+      <c r="AJ10" s="224"/>
+      <c r="AK10" s="224"/>
+      <c r="AL10" s="224"/>
+      <c r="AM10" s="224"/>
+      <c r="AN10" s="225"/>
+      <c r="AO10" s="226"/>
+      <c r="AP10" s="227"/>
+      <c r="AQ10" s="227"/>
+      <c r="AR10" s="227"/>
+      <c r="AS10" s="227"/>
+      <c r="AT10" s="227"/>
+      <c r="AU10" s="227"/>
+      <c r="AV10" s="227"/>
+      <c r="AW10" s="227"/>
+      <c r="AX10" s="227"/>
+      <c r="AY10" s="227"/>
+      <c r="AZ10" s="227"/>
+      <c r="BA10" s="227"/>
+      <c r="BB10" s="227"/>
+      <c r="BC10" s="227"/>
+      <c r="BD10" s="227"/>
+      <c r="BE10" s="227"/>
+      <c r="BF10" s="227"/>
+      <c r="BG10" s="227"/>
+      <c r="BH10" s="227"/>
+      <c r="BI10" s="227"/>
+      <c r="BJ10" s="227"/>
+      <c r="BK10" s="227"/>
+      <c r="BL10" s="227"/>
       <c r="BM10" s="69"/>
       <c r="BN10" s="70"/>
     </row>
@@ -13573,87 +13567,87 @@
       <c r="A11" s="55">
         <v>3</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="211" t="s">
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="213"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="260" t="s">
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
+      <c r="P11" s="210"/>
+      <c r="Q11" s="236" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="257"/>
-      <c r="S11" s="251" t="s">
+      <c r="R11" s="232"/>
+      <c r="S11" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T11" s="252"/>
-      <c r="U11" s="261" t="s">
+      <c r="T11" s="219"/>
+      <c r="U11" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="V11" s="259"/>
-      <c r="W11" s="211" t="s">
+      <c r="V11" s="221"/>
+      <c r="W11" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X11" s="212"/>
-      <c r="Y11" s="211" t="s">
+      <c r="X11" s="210"/>
+      <c r="Y11" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="213"/>
-      <c r="AA11" s="213"/>
-      <c r="AB11" s="212"/>
-      <c r="AC11" s="208" t="s">
+      <c r="Z11" s="209"/>
+      <c r="AA11" s="209"/>
+      <c r="AB11" s="210"/>
+      <c r="AC11" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="AD11" s="209"/>
-      <c r="AE11" s="209"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="219" t="s">
+      <c r="AD11" s="212"/>
+      <c r="AE11" s="212"/>
+      <c r="AF11" s="212"/>
+      <c r="AG11" s="213"/>
+      <c r="AH11" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="AI11" s="220"/>
-      <c r="AJ11" s="220"/>
-      <c r="AK11" s="220"/>
-      <c r="AL11" s="220"/>
-      <c r="AM11" s="220"/>
-      <c r="AN11" s="220"/>
-      <c r="AO11" s="222"/>
-      <c r="AP11" s="218"/>
-      <c r="AQ11" s="218"/>
-      <c r="AR11" s="218"/>
-      <c r="AS11" s="218"/>
-      <c r="AT11" s="218"/>
-      <c r="AU11" s="218"/>
-      <c r="AV11" s="218"/>
-      <c r="AW11" s="218"/>
-      <c r="AX11" s="218"/>
-      <c r="AY11" s="218"/>
-      <c r="AZ11" s="218"/>
-      <c r="BA11" s="218"/>
-      <c r="BB11" s="218"/>
-      <c r="BC11" s="218"/>
-      <c r="BD11" s="218"/>
-      <c r="BE11" s="218"/>
-      <c r="BF11" s="218"/>
-      <c r="BG11" s="218"/>
-      <c r="BH11" s="218"/>
-      <c r="BI11" s="218"/>
-      <c r="BJ11" s="218"/>
-      <c r="BK11" s="218"/>
-      <c r="BL11" s="218"/>
+      <c r="AI11" s="224"/>
+      <c r="AJ11" s="224"/>
+      <c r="AK11" s="224"/>
+      <c r="AL11" s="224"/>
+      <c r="AM11" s="224"/>
+      <c r="AN11" s="224"/>
+      <c r="AO11" s="226"/>
+      <c r="AP11" s="227"/>
+      <c r="AQ11" s="227"/>
+      <c r="AR11" s="227"/>
+      <c r="AS11" s="227"/>
+      <c r="AT11" s="227"/>
+      <c r="AU11" s="227"/>
+      <c r="AV11" s="227"/>
+      <c r="AW11" s="227"/>
+      <c r="AX11" s="227"/>
+      <c r="AY11" s="227"/>
+      <c r="AZ11" s="227"/>
+      <c r="BA11" s="227"/>
+      <c r="BB11" s="227"/>
+      <c r="BC11" s="227"/>
+      <c r="BD11" s="227"/>
+      <c r="BE11" s="227"/>
+      <c r="BF11" s="227"/>
+      <c r="BG11" s="227"/>
+      <c r="BH11" s="227"/>
+      <c r="BI11" s="227"/>
+      <c r="BJ11" s="227"/>
+      <c r="BK11" s="227"/>
+      <c r="BL11" s="227"/>
       <c r="BM11" s="69"/>
       <c r="BN11" s="70"/>
     </row>
@@ -13661,87 +13655,87 @@
       <c r="A12" s="55">
         <v>4</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="211" t="s">
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="213"/>
-      <c r="O12" s="213"/>
-      <c r="P12" s="212"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
+      <c r="P12" s="210"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="78">
         <v>10</v>
       </c>
-      <c r="S12" s="251" t="s">
+      <c r="S12" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="252"/>
-      <c r="U12" s="261" t="s">
+      <c r="T12" s="219"/>
+      <c r="U12" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="V12" s="259"/>
-      <c r="W12" s="211" t="s">
+      <c r="V12" s="221"/>
+      <c r="W12" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X12" s="212"/>
-      <c r="Y12" s="211" t="s">
+      <c r="X12" s="210"/>
+      <c r="Y12" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="208" t="s">
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="209"/>
+      <c r="AB12" s="210"/>
+      <c r="AC12" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD12" s="209"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="210"/>
-      <c r="AH12" s="219" t="s">
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="213"/>
+      <c r="AH12" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="AI12" s="220"/>
-      <c r="AJ12" s="220"/>
-      <c r="AK12" s="220"/>
-      <c r="AL12" s="220"/>
-      <c r="AM12" s="220"/>
-      <c r="AN12" s="221"/>
-      <c r="AO12" s="222"/>
-      <c r="AP12" s="218"/>
-      <c r="AQ12" s="218"/>
-      <c r="AR12" s="218"/>
-      <c r="AS12" s="218"/>
-      <c r="AT12" s="218"/>
-      <c r="AU12" s="218"/>
-      <c r="AV12" s="218"/>
-      <c r="AW12" s="218"/>
-      <c r="AX12" s="218"/>
-      <c r="AY12" s="218"/>
-      <c r="AZ12" s="218"/>
-      <c r="BA12" s="218"/>
-      <c r="BB12" s="218"/>
-      <c r="BC12" s="218"/>
-      <c r="BD12" s="218"/>
-      <c r="BE12" s="218"/>
-      <c r="BF12" s="218"/>
-      <c r="BG12" s="218"/>
-      <c r="BH12" s="218"/>
-      <c r="BI12" s="218"/>
-      <c r="BJ12" s="218"/>
-      <c r="BK12" s="218"/>
-      <c r="BL12" s="218"/>
+      <c r="AI12" s="224"/>
+      <c r="AJ12" s="224"/>
+      <c r="AK12" s="224"/>
+      <c r="AL12" s="224"/>
+      <c r="AM12" s="224"/>
+      <c r="AN12" s="225"/>
+      <c r="AO12" s="226"/>
+      <c r="AP12" s="227"/>
+      <c r="AQ12" s="227"/>
+      <c r="AR12" s="227"/>
+      <c r="AS12" s="227"/>
+      <c r="AT12" s="227"/>
+      <c r="AU12" s="227"/>
+      <c r="AV12" s="227"/>
+      <c r="AW12" s="227"/>
+      <c r="AX12" s="227"/>
+      <c r="AY12" s="227"/>
+      <c r="AZ12" s="227"/>
+      <c r="BA12" s="227"/>
+      <c r="BB12" s="227"/>
+      <c r="BC12" s="227"/>
+      <c r="BD12" s="227"/>
+      <c r="BE12" s="227"/>
+      <c r="BF12" s="227"/>
+      <c r="BG12" s="227"/>
+      <c r="BH12" s="227"/>
+      <c r="BI12" s="227"/>
+      <c r="BJ12" s="227"/>
+      <c r="BK12" s="227"/>
+      <c r="BL12" s="227"/>
       <c r="BM12" s="69"/>
       <c r="BN12" s="70"/>
     </row>
@@ -13749,87 +13743,87 @@
       <c r="A13" s="55">
         <v>5</v>
       </c>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="190" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="211" t="s">
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="213"/>
-      <c r="O13" s="213"/>
-      <c r="P13" s="212"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="209"/>
+      <c r="P13" s="210"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="78">
         <v>10</v>
       </c>
-      <c r="S13" s="251" t="s">
+      <c r="S13" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T13" s="252"/>
-      <c r="U13" s="261" t="s">
+      <c r="T13" s="219"/>
+      <c r="U13" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="V13" s="259"/>
-      <c r="W13" s="211" t="s">
+      <c r="V13" s="221"/>
+      <c r="W13" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="211" t="s">
+      <c r="X13" s="210"/>
+      <c r="Y13" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="212"/>
-      <c r="AC13" s="208" t="s">
+      <c r="Z13" s="209"/>
+      <c r="AA13" s="209"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD13" s="209"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="209"/>
-      <c r="AG13" s="210"/>
-      <c r="AH13" s="219" t="s">
+      <c r="AD13" s="212"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="212"/>
+      <c r="AG13" s="213"/>
+      <c r="AH13" s="214" t="s">
         <v>101</v>
       </c>
-      <c r="AI13" s="220"/>
-      <c r="AJ13" s="220"/>
-      <c r="AK13" s="220"/>
-      <c r="AL13" s="220"/>
-      <c r="AM13" s="220"/>
-      <c r="AN13" s="221"/>
-      <c r="AO13" s="222"/>
-      <c r="AP13" s="218"/>
-      <c r="AQ13" s="218"/>
-      <c r="AR13" s="218"/>
-      <c r="AS13" s="218"/>
-      <c r="AT13" s="218"/>
-      <c r="AU13" s="218"/>
-      <c r="AV13" s="218"/>
-      <c r="AW13" s="218"/>
-      <c r="AX13" s="218"/>
-      <c r="AY13" s="218"/>
-      <c r="AZ13" s="218"/>
-      <c r="BA13" s="218"/>
-      <c r="BB13" s="218"/>
-      <c r="BC13" s="218"/>
-      <c r="BD13" s="218"/>
-      <c r="BE13" s="218"/>
-      <c r="BF13" s="218"/>
-      <c r="BG13" s="218"/>
-      <c r="BH13" s="218"/>
-      <c r="BI13" s="218"/>
-      <c r="BJ13" s="218"/>
-      <c r="BK13" s="218"/>
-      <c r="BL13" s="218"/>
+      <c r="AI13" s="224"/>
+      <c r="AJ13" s="224"/>
+      <c r="AK13" s="224"/>
+      <c r="AL13" s="224"/>
+      <c r="AM13" s="224"/>
+      <c r="AN13" s="225"/>
+      <c r="AO13" s="226"/>
+      <c r="AP13" s="227"/>
+      <c r="AQ13" s="227"/>
+      <c r="AR13" s="227"/>
+      <c r="AS13" s="227"/>
+      <c r="AT13" s="227"/>
+      <c r="AU13" s="227"/>
+      <c r="AV13" s="227"/>
+      <c r="AW13" s="227"/>
+      <c r="AX13" s="227"/>
+      <c r="AY13" s="227"/>
+      <c r="AZ13" s="227"/>
+      <c r="BA13" s="227"/>
+      <c r="BB13" s="227"/>
+      <c r="BC13" s="227"/>
+      <c r="BD13" s="227"/>
+      <c r="BE13" s="227"/>
+      <c r="BF13" s="227"/>
+      <c r="BG13" s="227"/>
+      <c r="BH13" s="227"/>
+      <c r="BI13" s="227"/>
+      <c r="BJ13" s="227"/>
+      <c r="BK13" s="227"/>
+      <c r="BL13" s="227"/>
       <c r="BM13" s="69"/>
       <c r="BN13" s="70"/>
     </row>
@@ -13850,50 +13844,50 @@
       <c r="J14" s="104"/>
       <c r="K14" s="104"/>
       <c r="L14" s="92"/>
-      <c r="M14" s="211" t="s">
+      <c r="M14" s="208" t="s">
         <v>92</v>
       </c>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="212"/>
+      <c r="N14" s="222"/>
+      <c r="O14" s="222"/>
+      <c r="P14" s="210"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="78">
         <v>50</v>
       </c>
-      <c r="S14" s="251" t="s">
+      <c r="S14" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="252"/>
-      <c r="U14" s="261" t="s">
+      <c r="T14" s="219"/>
+      <c r="U14" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="V14" s="259"/>
-      <c r="W14" s="211" t="s">
+      <c r="V14" s="221"/>
+      <c r="W14" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="212"/>
-      <c r="Y14" s="211" t="s">
+      <c r="X14" s="210"/>
+      <c r="Y14" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="212"/>
-      <c r="AC14" s="208" t="s">
+      <c r="Z14" s="209"/>
+      <c r="AA14" s="209"/>
+      <c r="AB14" s="210"/>
+      <c r="AC14" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD14" s="209"/>
-      <c r="AE14" s="209"/>
-      <c r="AF14" s="209"/>
-      <c r="AG14" s="210"/>
-      <c r="AH14" s="219" t="s">
+      <c r="AD14" s="212"/>
+      <c r="AE14" s="212"/>
+      <c r="AF14" s="212"/>
+      <c r="AG14" s="213"/>
+      <c r="AH14" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="AI14" s="223"/>
-      <c r="AJ14" s="223"/>
-      <c r="AK14" s="223"/>
-      <c r="AL14" s="223"/>
-      <c r="AM14" s="223"/>
-      <c r="AN14" s="224"/>
+      <c r="AI14" s="215"/>
+      <c r="AJ14" s="215"/>
+      <c r="AK14" s="215"/>
+      <c r="AL14" s="215"/>
+      <c r="AM14" s="215"/>
+      <c r="AN14" s="216"/>
       <c r="AO14" s="105"/>
       <c r="AP14" s="106"/>
       <c r="AQ14" s="106"/>
@@ -13938,50 +13932,50 @@
       <c r="J15" s="104"/>
       <c r="K15" s="104"/>
       <c r="L15" s="92"/>
-      <c r="M15" s="211" t="s">
+      <c r="M15" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="212"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="210"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="78">
         <v>50</v>
       </c>
-      <c r="S15" s="251" t="s">
+      <c r="S15" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T15" s="252"/>
-      <c r="U15" s="261" t="s">
+      <c r="T15" s="219"/>
+      <c r="U15" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="V15" s="259"/>
-      <c r="W15" s="211" t="s">
+      <c r="V15" s="221"/>
+      <c r="W15" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="212"/>
-      <c r="Y15" s="211" t="s">
+      <c r="X15" s="210"/>
+      <c r="Y15" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="213"/>
-      <c r="AA15" s="213"/>
-      <c r="AB15" s="212"/>
-      <c r="AC15" s="208" t="s">
+      <c r="Z15" s="209"/>
+      <c r="AA15" s="209"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="AD15" s="209"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="209"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="219" t="s">
+      <c r="AD15" s="212"/>
+      <c r="AE15" s="212"/>
+      <c r="AF15" s="212"/>
+      <c r="AG15" s="213"/>
+      <c r="AH15" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="AI15" s="223"/>
-      <c r="AJ15" s="223"/>
-      <c r="AK15" s="223"/>
-      <c r="AL15" s="223"/>
-      <c r="AM15" s="223"/>
-      <c r="AN15" s="224"/>
+      <c r="AI15" s="215"/>
+      <c r="AJ15" s="215"/>
+      <c r="AK15" s="215"/>
+      <c r="AL15" s="215"/>
+      <c r="AM15" s="215"/>
+      <c r="AN15" s="216"/>
       <c r="AO15" s="105"/>
       <c r="AP15" s="106"/>
       <c r="AQ15" s="106"/>
@@ -14026,50 +14020,50 @@
       <c r="J16" s="104"/>
       <c r="K16" s="104"/>
       <c r="L16" s="92"/>
-      <c r="M16" s="211" t="s">
+      <c r="M16" s="208" t="s">
         <v>138</v>
       </c>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="212"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="222"/>
+      <c r="P16" s="210"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="251" t="s">
+      <c r="S16" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="252"/>
-      <c r="U16" s="261" t="s">
+      <c r="T16" s="219"/>
+      <c r="U16" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="V16" s="259"/>
-      <c r="W16" s="211" t="s">
+      <c r="V16" s="221"/>
+      <c r="W16" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="212"/>
-      <c r="Y16" s="211" t="s">
+      <c r="X16" s="210"/>
+      <c r="Y16" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="213"/>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="212"/>
-      <c r="AC16" s="208" t="s">
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="209"/>
+      <c r="AB16" s="210"/>
+      <c r="AC16" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="AD16" s="209"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="209"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="219" t="s">
+      <c r="AD16" s="212"/>
+      <c r="AE16" s="212"/>
+      <c r="AF16" s="212"/>
+      <c r="AG16" s="213"/>
+      <c r="AH16" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="AI16" s="223"/>
-      <c r="AJ16" s="223"/>
-      <c r="AK16" s="223"/>
-      <c r="AL16" s="223"/>
-      <c r="AM16" s="223"/>
-      <c r="AN16" s="224"/>
+      <c r="AI16" s="215"/>
+      <c r="AJ16" s="215"/>
+      <c r="AK16" s="215"/>
+      <c r="AL16" s="215"/>
+      <c r="AM16" s="215"/>
+      <c r="AN16" s="216"/>
       <c r="AO16" s="105"/>
       <c r="AP16" s="106"/>
       <c r="AQ16" s="106"/>
@@ -14204,117 +14198,35 @@
       <c r="B26" s="56"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="263"/>
-      <c r="B27" s="263"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="217"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="263"/>
-      <c r="B28" s="263"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="217"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="263"/>
-      <c r="B29" s="263"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="217"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="263"/>
-      <c r="B30" s="263"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="217"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="263"/>
-      <c r="B31" s="263"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="217"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="263"/>
-      <c r="B32" s="263"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="217"/>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="263"/>
-      <c r="B33" s="263"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="BM7:BN8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
     <mergeCell ref="AC15:AG15"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
@@ -14339,6 +14251,88 @@
     <mergeCell ref="AO7:BL8"/>
     <mergeCell ref="AO11:BL11"/>
     <mergeCell ref="B12:L12"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14349,7 +14343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -14571,35 +14565,35 @@
       <c r="BN1" s="23"/>
     </row>
     <row r="2" spans="1:66" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="286" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
-      <c r="X2" s="271"/>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
+      <c r="Q2" s="287"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="287"/>
+      <c r="T2" s="287"/>
+      <c r="U2" s="287"/>
+      <c r="V2" s="287"/>
+      <c r="W2" s="287"/>
+      <c r="X2" s="287"/>
+      <c r="Y2" s="287"/>
+      <c r="Z2" s="287"/>
+      <c r="AA2" s="287"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -14627,33 +14621,33 @@
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="289"/>
+      <c r="S3" s="289"/>
+      <c r="T3" s="289"/>
+      <c r="U3" s="289"/>
+      <c r="V3" s="289"/>
+      <c r="W3" s="289"/>
+      <c r="X3" s="289"/>
+      <c r="Y3" s="289"/>
+      <c r="Z3" s="289"/>
+      <c r="AA3" s="289"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
       <c r="AD3" s="50"/>
@@ -14695,166 +14689,166 @@
       <c r="BN3" s="52"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="277" t="s">
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="280" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="283"/>
-      <c r="AK4" s="283"/>
-      <c r="AL4" s="283"/>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="283"/>
-      <c r="AR4" s="283"/>
-      <c r="AS4" s="283"/>
-      <c r="AT4" s="283"/>
-      <c r="AU4" s="283"/>
-      <c r="AV4" s="284"/>
-      <c r="AW4" s="285" t="s">
+      <c r="V4" s="299"/>
+      <c r="W4" s="299"/>
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299"/>
+      <c r="Z4" s="299"/>
+      <c r="AA4" s="299"/>
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299"/>
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299"/>
+      <c r="AG4" s="299"/>
+      <c r="AH4" s="299"/>
+      <c r="AI4" s="299"/>
+      <c r="AJ4" s="299"/>
+      <c r="AK4" s="299"/>
+      <c r="AL4" s="299"/>
+      <c r="AM4" s="299"/>
+      <c r="AN4" s="299"/>
+      <c r="AO4" s="299"/>
+      <c r="AP4" s="299"/>
+      <c r="AQ4" s="299"/>
+      <c r="AR4" s="299"/>
+      <c r="AS4" s="299"/>
+      <c r="AT4" s="299"/>
+      <c r="AU4" s="299"/>
+      <c r="AV4" s="300"/>
+      <c r="AW4" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="286"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="287">
+      <c r="AX4" s="277"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="278">
         <v>45447</v>
       </c>
-      <c r="BA4" s="288"/>
-      <c r="BB4" s="288"/>
-      <c r="BC4" s="288"/>
-      <c r="BD4" s="288"/>
-      <c r="BE4" s="289"/>
-      <c r="BF4" s="285" t="s">
+      <c r="BA4" s="279"/>
+      <c r="BB4" s="279"/>
+      <c r="BC4" s="279"/>
+      <c r="BD4" s="279"/>
+      <c r="BE4" s="280"/>
+      <c r="BF4" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="286"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="290" t="s">
+      <c r="BG4" s="277"/>
+      <c r="BH4" s="147"/>
+      <c r="BI4" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="BJ4" s="291"/>
-      <c r="BK4" s="291"/>
-      <c r="BL4" s="291"/>
-      <c r="BM4" s="291"/>
-      <c r="BN4" s="292"/>
+      <c r="BJ4" s="282"/>
+      <c r="BK4" s="282"/>
+      <c r="BL4" s="282"/>
+      <c r="BM4" s="282"/>
+      <c r="BN4" s="283"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="294" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="157" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="147"/>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="293"/>
-      <c r="AW5" s="163" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="140"/>
+      <c r="AT5" s="140"/>
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="284"/>
+      <c r="AW5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="162"/>
-      <c r="BA5" s="147"/>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="293"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="155"/>
+      <c r="BA5" s="140"/>
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="284"/>
+      <c r="BF5" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="162"/>
-      <c r="BJ5" s="147"/>
-      <c r="BK5" s="147"/>
-      <c r="BL5" s="147"/>
-      <c r="BM5" s="147"/>
-      <c r="BN5" s="293"/>
+      <c r="BG5" s="140"/>
+      <c r="BH5" s="157"/>
+      <c r="BI5" s="155"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="284"/>
     </row>
     <row r="6" spans="1:66" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A6" s="79"/>
@@ -14928,1150 +14922,1188 @@
       <c r="A7" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="295" t="s">
+      <c r="B7" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="296"/>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="297"/>
-      <c r="P7" s="298" t="s">
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="266"/>
+      <c r="P7" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="299"/>
-      <c r="R7" s="299"/>
-      <c r="S7" s="299"/>
-      <c r="T7" s="299"/>
-      <c r="U7" s="299"/>
-      <c r="V7" s="299"/>
-      <c r="W7" s="299"/>
-      <c r="X7" s="299"/>
-      <c r="Y7" s="299"/>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="299"/>
-      <c r="AC7" s="299"/>
-      <c r="AD7" s="299"/>
-      <c r="AE7" s="299"/>
-      <c r="AF7" s="299"/>
-      <c r="AG7" s="299"/>
-      <c r="AH7" s="299"/>
-      <c r="AI7" s="299"/>
-      <c r="AJ7" s="299"/>
-      <c r="AK7" s="299"/>
-      <c r="AL7" s="299"/>
-      <c r="AM7" s="299"/>
-      <c r="AN7" s="299"/>
-      <c r="AO7" s="299"/>
-      <c r="AP7" s="299"/>
-      <c r="AQ7" s="299"/>
-      <c r="AR7" s="300"/>
-      <c r="AS7" s="298" t="s">
+      <c r="Q7" s="268"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="268"/>
+      <c r="T7" s="268"/>
+      <c r="U7" s="268"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="268"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="268"/>
+      <c r="Z7" s="268"/>
+      <c r="AA7" s="268"/>
+      <c r="AB7" s="268"/>
+      <c r="AC7" s="268"/>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="268"/>
+      <c r="AF7" s="268"/>
+      <c r="AG7" s="268"/>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="268"/>
+      <c r="AJ7" s="268"/>
+      <c r="AK7" s="268"/>
+      <c r="AL7" s="268"/>
+      <c r="AM7" s="268"/>
+      <c r="AN7" s="268"/>
+      <c r="AO7" s="268"/>
+      <c r="AP7" s="268"/>
+      <c r="AQ7" s="268"/>
+      <c r="AR7" s="269"/>
+      <c r="AS7" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="AT7" s="299"/>
-      <c r="AU7" s="299"/>
-      <c r="AV7" s="299"/>
-      <c r="AW7" s="299"/>
-      <c r="AX7" s="299"/>
-      <c r="AY7" s="299"/>
-      <c r="AZ7" s="299"/>
-      <c r="BA7" s="299"/>
-      <c r="BB7" s="299"/>
-      <c r="BC7" s="299"/>
-      <c r="BD7" s="299"/>
-      <c r="BE7" s="299"/>
-      <c r="BF7" s="299"/>
-      <c r="BG7" s="299"/>
-      <c r="BH7" s="299"/>
-      <c r="BI7" s="299"/>
-      <c r="BJ7" s="299"/>
-      <c r="BK7" s="299"/>
-      <c r="BL7" s="299"/>
-      <c r="BM7" s="299"/>
-      <c r="BN7" s="300"/>
+      <c r="AT7" s="268"/>
+      <c r="AU7" s="268"/>
+      <c r="AV7" s="268"/>
+      <c r="AW7" s="268"/>
+      <c r="AX7" s="268"/>
+      <c r="AY7" s="268"/>
+      <c r="AZ7" s="268"/>
+      <c r="BA7" s="268"/>
+      <c r="BB7" s="268"/>
+      <c r="BC7" s="268"/>
+      <c r="BD7" s="268"/>
+      <c r="BE7" s="268"/>
+      <c r="BF7" s="268"/>
+      <c r="BG7" s="268"/>
+      <c r="BH7" s="268"/>
+      <c r="BI7" s="268"/>
+      <c r="BJ7" s="268"/>
+      <c r="BK7" s="268"/>
+      <c r="BL7" s="268"/>
+      <c r="BM7" s="268"/>
+      <c r="BN7" s="269"/>
     </row>
     <row r="8" spans="1:66" s="103" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="102">
         <v>1</v>
       </c>
-      <c r="B8" s="267" t="s">
+      <c r="B8" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="267" t="s">
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="271"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="270" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
-      <c r="AJ8" s="268"/>
-      <c r="AK8" s="268"/>
-      <c r="AL8" s="268"/>
-      <c r="AM8" s="268"/>
-      <c r="AN8" s="268"/>
-      <c r="AO8" s="268"/>
-      <c r="AP8" s="268"/>
-      <c r="AQ8" s="268"/>
-      <c r="AR8" s="269"/>
-      <c r="AS8" s="264" t="s">
+      <c r="Q8" s="271"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="271"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="271"/>
+      <c r="V8" s="271"/>
+      <c r="W8" s="271"/>
+      <c r="X8" s="271"/>
+      <c r="Y8" s="271"/>
+      <c r="Z8" s="271"/>
+      <c r="AA8" s="271"/>
+      <c r="AB8" s="271"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="271"/>
+      <c r="AE8" s="271"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="271"/>
+      <c r="AH8" s="271"/>
+      <c r="AI8" s="271"/>
+      <c r="AJ8" s="271"/>
+      <c r="AK8" s="271"/>
+      <c r="AL8" s="271"/>
+      <c r="AM8" s="271"/>
+      <c r="AN8" s="271"/>
+      <c r="AO8" s="271"/>
+      <c r="AP8" s="271"/>
+      <c r="AQ8" s="271"/>
+      <c r="AR8" s="272"/>
+      <c r="AS8" s="273" t="s">
         <v>106</v>
       </c>
-      <c r="AT8" s="265"/>
-      <c r="AU8" s="265"/>
-      <c r="AV8" s="265"/>
-      <c r="AW8" s="265"/>
-      <c r="AX8" s="265"/>
-      <c r="AY8" s="265"/>
-      <c r="AZ8" s="265"/>
-      <c r="BA8" s="265"/>
-      <c r="BB8" s="265"/>
-      <c r="BC8" s="265"/>
-      <c r="BD8" s="265"/>
-      <c r="BE8" s="265"/>
-      <c r="BF8" s="265"/>
-      <c r="BG8" s="265"/>
-      <c r="BH8" s="265"/>
-      <c r="BI8" s="265"/>
-      <c r="BJ8" s="265"/>
-      <c r="BK8" s="265"/>
-      <c r="BL8" s="265"/>
-      <c r="BM8" s="265"/>
-      <c r="BN8" s="266"/>
+      <c r="AT8" s="274"/>
+      <c r="AU8" s="274"/>
+      <c r="AV8" s="274"/>
+      <c r="AW8" s="274"/>
+      <c r="AX8" s="274"/>
+      <c r="AY8" s="274"/>
+      <c r="AZ8" s="274"/>
+      <c r="BA8" s="274"/>
+      <c r="BB8" s="274"/>
+      <c r="BC8" s="274"/>
+      <c r="BD8" s="274"/>
+      <c r="BE8" s="274"/>
+      <c r="BF8" s="274"/>
+      <c r="BG8" s="274"/>
+      <c r="BH8" s="274"/>
+      <c r="BI8" s="274"/>
+      <c r="BJ8" s="274"/>
+      <c r="BK8" s="274"/>
+      <c r="BL8" s="274"/>
+      <c r="BM8" s="274"/>
+      <c r="BN8" s="275"/>
     </row>
     <row r="9" spans="1:66" s="95" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="102">
         <v>2</v>
       </c>
-      <c r="B9" s="267" t="s">
+      <c r="B9" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="267" t="s">
+      <c r="C9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="271"/>
+      <c r="L9" s="271"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="271"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="268"/>
-      <c r="Y9" s="268"/>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268"/>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
-      <c r="AJ9" s="268"/>
-      <c r="AK9" s="268"/>
-      <c r="AL9" s="268"/>
-      <c r="AM9" s="268"/>
-      <c r="AN9" s="268"/>
-      <c r="AO9" s="268"/>
-      <c r="AP9" s="268"/>
-      <c r="AQ9" s="268"/>
-      <c r="AR9" s="269"/>
-      <c r="AS9" s="264" t="s">
+      <c r="Q9" s="271"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="271"/>
+      <c r="T9" s="271"/>
+      <c r="U9" s="271"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
+      <c r="X9" s="271"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="271"/>
+      <c r="AD9" s="271"/>
+      <c r="AE9" s="271"/>
+      <c r="AF9" s="271"/>
+      <c r="AG9" s="271"/>
+      <c r="AH9" s="271"/>
+      <c r="AI9" s="271"/>
+      <c r="AJ9" s="271"/>
+      <c r="AK9" s="271"/>
+      <c r="AL9" s="271"/>
+      <c r="AM9" s="271"/>
+      <c r="AN9" s="271"/>
+      <c r="AO9" s="271"/>
+      <c r="AP9" s="271"/>
+      <c r="AQ9" s="271"/>
+      <c r="AR9" s="272"/>
+      <c r="AS9" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="AT9" s="265"/>
-      <c r="AU9" s="265"/>
-      <c r="AV9" s="265"/>
-      <c r="AW9" s="265"/>
-      <c r="AX9" s="265"/>
-      <c r="AY9" s="265"/>
-      <c r="AZ9" s="265"/>
-      <c r="BA9" s="265"/>
-      <c r="BB9" s="265"/>
-      <c r="BC9" s="265"/>
-      <c r="BD9" s="265"/>
-      <c r="BE9" s="265"/>
-      <c r="BF9" s="265"/>
-      <c r="BG9" s="265"/>
-      <c r="BH9" s="265"/>
-      <c r="BI9" s="265"/>
-      <c r="BJ9" s="265"/>
-      <c r="BK9" s="265"/>
-      <c r="BL9" s="265"/>
-      <c r="BM9" s="265"/>
-      <c r="BN9" s="266"/>
+      <c r="AT9" s="274"/>
+      <c r="AU9" s="274"/>
+      <c r="AV9" s="274"/>
+      <c r="AW9" s="274"/>
+      <c r="AX9" s="274"/>
+      <c r="AY9" s="274"/>
+      <c r="AZ9" s="274"/>
+      <c r="BA9" s="274"/>
+      <c r="BB9" s="274"/>
+      <c r="BC9" s="274"/>
+      <c r="BD9" s="274"/>
+      <c r="BE9" s="274"/>
+      <c r="BF9" s="274"/>
+      <c r="BG9" s="274"/>
+      <c r="BH9" s="274"/>
+      <c r="BI9" s="274"/>
+      <c r="BJ9" s="274"/>
+      <c r="BK9" s="274"/>
+      <c r="BL9" s="274"/>
+      <c r="BM9" s="274"/>
+      <c r="BN9" s="275"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="102">
         <v>3</v>
       </c>
-      <c r="B10" s="267" t="s">
+      <c r="B10" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="269"/>
-      <c r="P10" s="267" t="s">
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="271"/>
+      <c r="L10" s="271"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="271"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="270" t="s">
         <v>109</v>
       </c>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="268"/>
-      <c r="X10" s="268"/>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="268"/>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="268"/>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="268"/>
-      <c r="AF10" s="268"/>
-      <c r="AG10" s="268"/>
-      <c r="AH10" s="268"/>
-      <c r="AI10" s="268"/>
-      <c r="AJ10" s="268"/>
-      <c r="AK10" s="268"/>
-      <c r="AL10" s="268"/>
-      <c r="AM10" s="268"/>
-      <c r="AN10" s="268"/>
-      <c r="AO10" s="268"/>
-      <c r="AP10" s="268"/>
-      <c r="AQ10" s="268"/>
-      <c r="AR10" s="269"/>
-      <c r="AS10" s="264" t="s">
+      <c r="Q10" s="271"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="271"/>
+      <c r="T10" s="271"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="271"/>
+      <c r="W10" s="271"/>
+      <c r="X10" s="271"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="271"/>
+      <c r="AB10" s="271"/>
+      <c r="AC10" s="271"/>
+      <c r="AD10" s="271"/>
+      <c r="AE10" s="271"/>
+      <c r="AF10" s="271"/>
+      <c r="AG10" s="271"/>
+      <c r="AH10" s="271"/>
+      <c r="AI10" s="271"/>
+      <c r="AJ10" s="271"/>
+      <c r="AK10" s="271"/>
+      <c r="AL10" s="271"/>
+      <c r="AM10" s="271"/>
+      <c r="AN10" s="271"/>
+      <c r="AO10" s="271"/>
+      <c r="AP10" s="271"/>
+      <c r="AQ10" s="271"/>
+      <c r="AR10" s="272"/>
+      <c r="AS10" s="273" t="s">
         <v>110</v>
       </c>
-      <c r="AT10" s="265"/>
-      <c r="AU10" s="265"/>
-      <c r="AV10" s="265"/>
-      <c r="AW10" s="265"/>
-      <c r="AX10" s="265"/>
-      <c r="AY10" s="265"/>
-      <c r="AZ10" s="265"/>
-      <c r="BA10" s="265"/>
-      <c r="BB10" s="265"/>
-      <c r="BC10" s="265"/>
-      <c r="BD10" s="265"/>
-      <c r="BE10" s="265"/>
-      <c r="BF10" s="265"/>
-      <c r="BG10" s="265"/>
-      <c r="BH10" s="265"/>
-      <c r="BI10" s="265"/>
-      <c r="BJ10" s="265"/>
-      <c r="BK10" s="265"/>
-      <c r="BL10" s="265"/>
-      <c r="BM10" s="265"/>
-      <c r="BN10" s="266"/>
+      <c r="AT10" s="274"/>
+      <c r="AU10" s="274"/>
+      <c r="AV10" s="274"/>
+      <c r="AW10" s="274"/>
+      <c r="AX10" s="274"/>
+      <c r="AY10" s="274"/>
+      <c r="AZ10" s="274"/>
+      <c r="BA10" s="274"/>
+      <c r="BB10" s="274"/>
+      <c r="BC10" s="274"/>
+      <c r="BD10" s="274"/>
+      <c r="BE10" s="274"/>
+      <c r="BF10" s="274"/>
+      <c r="BG10" s="274"/>
+      <c r="BH10" s="274"/>
+      <c r="BI10" s="274"/>
+      <c r="BJ10" s="274"/>
+      <c r="BK10" s="274"/>
+      <c r="BL10" s="274"/>
+      <c r="BM10" s="274"/>
+      <c r="BN10" s="275"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="102">
         <v>4</v>
       </c>
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="268"/>
-      <c r="F11" s="268"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="267" t="s">
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="271"/>
+      <c r="L11" s="271"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="270" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268"/>
-      <c r="AH11" s="268"/>
-      <c r="AI11" s="268"/>
-      <c r="AJ11" s="268"/>
-      <c r="AK11" s="268"/>
-      <c r="AL11" s="268"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="268"/>
-      <c r="AO11" s="268"/>
-      <c r="AP11" s="268"/>
-      <c r="AQ11" s="268"/>
-      <c r="AR11" s="269"/>
-      <c r="AS11" s="264" t="s">
+      <c r="Q11" s="271"/>
+      <c r="R11" s="271"/>
+      <c r="S11" s="271"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="271"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
+      <c r="AI11" s="271"/>
+      <c r="AJ11" s="271"/>
+      <c r="AK11" s="271"/>
+      <c r="AL11" s="271"/>
+      <c r="AM11" s="271"/>
+      <c r="AN11" s="271"/>
+      <c r="AO11" s="271"/>
+      <c r="AP11" s="271"/>
+      <c r="AQ11" s="271"/>
+      <c r="AR11" s="272"/>
+      <c r="AS11" s="273" t="s">
         <v>112</v>
       </c>
-      <c r="AT11" s="265"/>
-      <c r="AU11" s="265"/>
-      <c r="AV11" s="265"/>
-      <c r="AW11" s="265"/>
-      <c r="AX11" s="265"/>
-      <c r="AY11" s="265"/>
-      <c r="AZ11" s="265"/>
-      <c r="BA11" s="265"/>
-      <c r="BB11" s="265"/>
-      <c r="BC11" s="265"/>
-      <c r="BD11" s="265"/>
-      <c r="BE11" s="265"/>
-      <c r="BF11" s="265"/>
-      <c r="BG11" s="265"/>
-      <c r="BH11" s="265"/>
-      <c r="BI11" s="265"/>
-      <c r="BJ11" s="265"/>
-      <c r="BK11" s="265"/>
-      <c r="BL11" s="265"/>
-      <c r="BM11" s="265"/>
-      <c r="BN11" s="266"/>
+      <c r="AT11" s="274"/>
+      <c r="AU11" s="274"/>
+      <c r="AV11" s="274"/>
+      <c r="AW11" s="274"/>
+      <c r="AX11" s="274"/>
+      <c r="AY11" s="274"/>
+      <c r="AZ11" s="274"/>
+      <c r="BA11" s="274"/>
+      <c r="BB11" s="274"/>
+      <c r="BC11" s="274"/>
+      <c r="BD11" s="274"/>
+      <c r="BE11" s="274"/>
+      <c r="BF11" s="274"/>
+      <c r="BG11" s="274"/>
+      <c r="BH11" s="274"/>
+      <c r="BI11" s="274"/>
+      <c r="BJ11" s="274"/>
+      <c r="BK11" s="274"/>
+      <c r="BL11" s="274"/>
+      <c r="BM11" s="274"/>
+      <c r="BN11" s="275"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="102">
         <v>5</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="268"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="267" t="s">
+      <c r="C12" s="271"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="271"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="271"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="270" t="s">
         <v>113</v>
       </c>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="268"/>
-      <c r="Y12" s="268"/>
-      <c r="Z12" s="268"/>
-      <c r="AA12" s="268"/>
-      <c r="AB12" s="268"/>
-      <c r="AC12" s="268"/>
-      <c r="AD12" s="268"/>
-      <c r="AE12" s="268"/>
-      <c r="AF12" s="268"/>
-      <c r="AG12" s="268"/>
-      <c r="AH12" s="268"/>
-      <c r="AI12" s="268"/>
-      <c r="AJ12" s="268"/>
-      <c r="AK12" s="268"/>
-      <c r="AL12" s="268"/>
-      <c r="AM12" s="268"/>
-      <c r="AN12" s="268"/>
-      <c r="AO12" s="268"/>
-      <c r="AP12" s="268"/>
-      <c r="AQ12" s="268"/>
-      <c r="AR12" s="269"/>
-      <c r="AS12" s="264" t="s">
+      <c r="Q12" s="271"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="271"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
+      <c r="AI12" s="271"/>
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="271"/>
+      <c r="AN12" s="271"/>
+      <c r="AO12" s="271"/>
+      <c r="AP12" s="271"/>
+      <c r="AQ12" s="271"/>
+      <c r="AR12" s="272"/>
+      <c r="AS12" s="273" t="s">
         <v>114</v>
       </c>
-      <c r="AT12" s="265"/>
-      <c r="AU12" s="265"/>
-      <c r="AV12" s="265"/>
-      <c r="AW12" s="265"/>
-      <c r="AX12" s="265"/>
-      <c r="AY12" s="265"/>
-      <c r="AZ12" s="265"/>
-      <c r="BA12" s="265"/>
-      <c r="BB12" s="265"/>
-      <c r="BC12" s="265"/>
-      <c r="BD12" s="265"/>
-      <c r="BE12" s="265"/>
-      <c r="BF12" s="265"/>
-      <c r="BG12" s="265"/>
-      <c r="BH12" s="265"/>
-      <c r="BI12" s="265"/>
-      <c r="BJ12" s="265"/>
-      <c r="BK12" s="265"/>
-      <c r="BL12" s="265"/>
-      <c r="BM12" s="265"/>
-      <c r="BN12" s="266"/>
+      <c r="AT12" s="274"/>
+      <c r="AU12" s="274"/>
+      <c r="AV12" s="274"/>
+      <c r="AW12" s="274"/>
+      <c r="AX12" s="274"/>
+      <c r="AY12" s="274"/>
+      <c r="AZ12" s="274"/>
+      <c r="BA12" s="274"/>
+      <c r="BB12" s="274"/>
+      <c r="BC12" s="274"/>
+      <c r="BD12" s="274"/>
+      <c r="BE12" s="274"/>
+      <c r="BF12" s="274"/>
+      <c r="BG12" s="274"/>
+      <c r="BH12" s="274"/>
+      <c r="BI12" s="274"/>
+      <c r="BJ12" s="274"/>
+      <c r="BK12" s="274"/>
+      <c r="BL12" s="274"/>
+      <c r="BM12" s="274"/>
+      <c r="BN12" s="275"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="102">
         <v>6</v>
       </c>
-      <c r="B13" s="267" t="s">
+      <c r="B13" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="268"/>
-      <c r="L13" s="268"/>
-      <c r="M13" s="268"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="267" t="s">
+      <c r="C13" s="271"/>
+      <c r="D13" s="271"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="271"/>
+      <c r="O13" s="272"/>
+      <c r="P13" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="268"/>
-      <c r="S13" s="268"/>
-      <c r="T13" s="268"/>
-      <c r="U13" s="268"/>
-      <c r="V13" s="268"/>
-      <c r="W13" s="268"/>
-      <c r="X13" s="268"/>
-      <c r="Y13" s="268"/>
-      <c r="Z13" s="268"/>
-      <c r="AA13" s="268"/>
-      <c r="AB13" s="268"/>
-      <c r="AC13" s="268"/>
-      <c r="AD13" s="268"/>
-      <c r="AE13" s="268"/>
-      <c r="AF13" s="268"/>
-      <c r="AG13" s="268"/>
-      <c r="AH13" s="268"/>
-      <c r="AI13" s="268"/>
-      <c r="AJ13" s="268"/>
-      <c r="AK13" s="268"/>
-      <c r="AL13" s="268"/>
-      <c r="AM13" s="268"/>
-      <c r="AN13" s="268"/>
-      <c r="AO13" s="268"/>
-      <c r="AP13" s="268"/>
-      <c r="AQ13" s="268"/>
-      <c r="AR13" s="269"/>
-      <c r="AS13" s="264" t="s">
+      <c r="Q13" s="271"/>
+      <c r="R13" s="271"/>
+      <c r="S13" s="271"/>
+      <c r="T13" s="271"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="271"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
+      <c r="AI13" s="271"/>
+      <c r="AJ13" s="271"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="271"/>
+      <c r="AN13" s="271"/>
+      <c r="AO13" s="271"/>
+      <c r="AP13" s="271"/>
+      <c r="AQ13" s="271"/>
+      <c r="AR13" s="272"/>
+      <c r="AS13" s="273" t="s">
         <v>116</v>
       </c>
-      <c r="AT13" s="265"/>
-      <c r="AU13" s="265"/>
-      <c r="AV13" s="265"/>
-      <c r="AW13" s="265"/>
-      <c r="AX13" s="265"/>
-      <c r="AY13" s="265"/>
-      <c r="AZ13" s="265"/>
-      <c r="BA13" s="265"/>
-      <c r="BB13" s="265"/>
-      <c r="BC13" s="265"/>
-      <c r="BD13" s="265"/>
-      <c r="BE13" s="265"/>
-      <c r="BF13" s="265"/>
-      <c r="BG13" s="265"/>
-      <c r="BH13" s="265"/>
-      <c r="BI13" s="265"/>
-      <c r="BJ13" s="265"/>
-      <c r="BK13" s="265"/>
-      <c r="BL13" s="265"/>
-      <c r="BM13" s="265"/>
-      <c r="BN13" s="266"/>
+      <c r="AT13" s="274"/>
+      <c r="AU13" s="274"/>
+      <c r="AV13" s="274"/>
+      <c r="AW13" s="274"/>
+      <c r="AX13" s="274"/>
+      <c r="AY13" s="274"/>
+      <c r="AZ13" s="274"/>
+      <c r="BA13" s="274"/>
+      <c r="BB13" s="274"/>
+      <c r="BC13" s="274"/>
+      <c r="BD13" s="274"/>
+      <c r="BE13" s="274"/>
+      <c r="BF13" s="274"/>
+      <c r="BG13" s="274"/>
+      <c r="BH13" s="274"/>
+      <c r="BI13" s="274"/>
+      <c r="BJ13" s="274"/>
+      <c r="BK13" s="274"/>
+      <c r="BL13" s="274"/>
+      <c r="BM13" s="274"/>
+      <c r="BN13" s="275"/>
     </row>
     <row r="14" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="102">
         <v>7</v>
       </c>
-      <c r="B14" s="267" t="s">
+      <c r="B14" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="268"/>
-      <c r="D14" s="268"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="268"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="269"/>
-      <c r="P14" s="267" t="s">
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="271"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="270" t="s">
         <v>117</v>
       </c>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="268"/>
-      <c r="S14" s="268"/>
-      <c r="T14" s="268"/>
-      <c r="U14" s="268"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="268"/>
-      <c r="X14" s="268"/>
-      <c r="Y14" s="268"/>
-      <c r="Z14" s="268"/>
-      <c r="AA14" s="268"/>
-      <c r="AB14" s="268"/>
-      <c r="AC14" s="268"/>
-      <c r="AD14" s="268"/>
-      <c r="AE14" s="268"/>
-      <c r="AF14" s="268"/>
-      <c r="AG14" s="268"/>
-      <c r="AH14" s="268"/>
-      <c r="AI14" s="268"/>
-      <c r="AJ14" s="268"/>
-      <c r="AK14" s="268"/>
-      <c r="AL14" s="268"/>
-      <c r="AM14" s="268"/>
-      <c r="AN14" s="268"/>
-      <c r="AO14" s="268"/>
-      <c r="AP14" s="268"/>
-      <c r="AQ14" s="268"/>
-      <c r="AR14" s="269"/>
-      <c r="AS14" s="264" t="s">
+      <c r="Q14" s="271"/>
+      <c r="R14" s="271"/>
+      <c r="S14" s="271"/>
+      <c r="T14" s="271"/>
+      <c r="U14" s="271"/>
+      <c r="V14" s="271"/>
+      <c r="W14" s="271"/>
+      <c r="X14" s="271"/>
+      <c r="Y14" s="271"/>
+      <c r="Z14" s="271"/>
+      <c r="AA14" s="271"/>
+      <c r="AB14" s="271"/>
+      <c r="AC14" s="271"/>
+      <c r="AD14" s="271"/>
+      <c r="AE14" s="271"/>
+      <c r="AF14" s="271"/>
+      <c r="AG14" s="271"/>
+      <c r="AH14" s="271"/>
+      <c r="AI14" s="271"/>
+      <c r="AJ14" s="271"/>
+      <c r="AK14" s="271"/>
+      <c r="AL14" s="271"/>
+      <c r="AM14" s="271"/>
+      <c r="AN14" s="271"/>
+      <c r="AO14" s="271"/>
+      <c r="AP14" s="271"/>
+      <c r="AQ14" s="271"/>
+      <c r="AR14" s="272"/>
+      <c r="AS14" s="273" t="s">
         <v>118</v>
       </c>
-      <c r="AT14" s="265"/>
-      <c r="AU14" s="265"/>
-      <c r="AV14" s="265"/>
-      <c r="AW14" s="265"/>
-      <c r="AX14" s="265"/>
-      <c r="AY14" s="265"/>
-      <c r="AZ14" s="265"/>
-      <c r="BA14" s="265"/>
-      <c r="BB14" s="265"/>
-      <c r="BC14" s="265"/>
-      <c r="BD14" s="265"/>
-      <c r="BE14" s="265"/>
-      <c r="BF14" s="265"/>
-      <c r="BG14" s="265"/>
-      <c r="BH14" s="265"/>
-      <c r="BI14" s="265"/>
-      <c r="BJ14" s="265"/>
-      <c r="BK14" s="265"/>
-      <c r="BL14" s="265"/>
-      <c r="BM14" s="265"/>
-      <c r="BN14" s="266"/>
+      <c r="AT14" s="274"/>
+      <c r="AU14" s="274"/>
+      <c r="AV14" s="274"/>
+      <c r="AW14" s="274"/>
+      <c r="AX14" s="274"/>
+      <c r="AY14" s="274"/>
+      <c r="AZ14" s="274"/>
+      <c r="BA14" s="274"/>
+      <c r="BB14" s="274"/>
+      <c r="BC14" s="274"/>
+      <c r="BD14" s="274"/>
+      <c r="BE14" s="274"/>
+      <c r="BF14" s="274"/>
+      <c r="BG14" s="274"/>
+      <c r="BH14" s="274"/>
+      <c r="BI14" s="274"/>
+      <c r="BJ14" s="274"/>
+      <c r="BK14" s="274"/>
+      <c r="BL14" s="274"/>
+      <c r="BM14" s="274"/>
+      <c r="BN14" s="275"/>
     </row>
     <row r="15" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="102">
         <v>8</v>
       </c>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="268"/>
-      <c r="L15" s="268"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="269"/>
-      <c r="P15" s="267" t="s">
+      <c r="C15" s="271"/>
+      <c r="D15" s="271"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="271"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="271"/>
+      <c r="L15" s="271"/>
+      <c r="M15" s="271"/>
+      <c r="N15" s="271"/>
+      <c r="O15" s="272"/>
+      <c r="P15" s="270" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="268"/>
-      <c r="S15" s="268"/>
-      <c r="T15" s="268"/>
-      <c r="U15" s="268"/>
-      <c r="V15" s="268"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="268"/>
-      <c r="Y15" s="268"/>
-      <c r="Z15" s="268"/>
-      <c r="AA15" s="268"/>
-      <c r="AB15" s="268"/>
-      <c r="AC15" s="268"/>
-      <c r="AD15" s="268"/>
-      <c r="AE15" s="268"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="268"/>
-      <c r="AH15" s="268"/>
-      <c r="AI15" s="268"/>
-      <c r="AJ15" s="268"/>
-      <c r="AK15" s="268"/>
-      <c r="AL15" s="268"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="268"/>
-      <c r="AO15" s="268"/>
-      <c r="AP15" s="268"/>
-      <c r="AQ15" s="268"/>
-      <c r="AR15" s="269"/>
-      <c r="AS15" s="264" t="s">
+      <c r="Q15" s="271"/>
+      <c r="R15" s="271"/>
+      <c r="S15" s="271"/>
+      <c r="T15" s="271"/>
+      <c r="U15" s="271"/>
+      <c r="V15" s="271"/>
+      <c r="W15" s="271"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="271"/>
+      <c r="Z15" s="271"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="271"/>
+      <c r="AH15" s="271"/>
+      <c r="AI15" s="271"/>
+      <c r="AJ15" s="271"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="271"/>
+      <c r="AN15" s="271"/>
+      <c r="AO15" s="271"/>
+      <c r="AP15" s="271"/>
+      <c r="AQ15" s="271"/>
+      <c r="AR15" s="272"/>
+      <c r="AS15" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="AT15" s="265"/>
-      <c r="AU15" s="265"/>
-      <c r="AV15" s="265"/>
-      <c r="AW15" s="265"/>
-      <c r="AX15" s="265"/>
-      <c r="AY15" s="265"/>
-      <c r="AZ15" s="265"/>
-      <c r="BA15" s="265"/>
-      <c r="BB15" s="265"/>
-      <c r="BC15" s="265"/>
-      <c r="BD15" s="265"/>
-      <c r="BE15" s="265"/>
-      <c r="BF15" s="265"/>
-      <c r="BG15" s="265"/>
-      <c r="BH15" s="265"/>
-      <c r="BI15" s="265"/>
-      <c r="BJ15" s="265"/>
-      <c r="BK15" s="265"/>
-      <c r="BL15" s="265"/>
-      <c r="BM15" s="265"/>
-      <c r="BN15" s="266"/>
+      <c r="AT15" s="274"/>
+      <c r="AU15" s="274"/>
+      <c r="AV15" s="274"/>
+      <c r="AW15" s="274"/>
+      <c r="AX15" s="274"/>
+      <c r="AY15" s="274"/>
+      <c r="AZ15" s="274"/>
+      <c r="BA15" s="274"/>
+      <c r="BB15" s="274"/>
+      <c r="BC15" s="274"/>
+      <c r="BD15" s="274"/>
+      <c r="BE15" s="274"/>
+      <c r="BF15" s="274"/>
+      <c r="BG15" s="274"/>
+      <c r="BH15" s="274"/>
+      <c r="BI15" s="274"/>
+      <c r="BJ15" s="274"/>
+      <c r="BK15" s="274"/>
+      <c r="BL15" s="274"/>
+      <c r="BM15" s="274"/>
+      <c r="BN15" s="275"/>
     </row>
     <row r="16" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="102">
         <v>9</v>
       </c>
-      <c r="B16" s="267" t="s">
+      <c r="B16" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="268"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="269"/>
-      <c r="P16" s="267" t="s">
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="271"/>
+      <c r="L16" s="271"/>
+      <c r="M16" s="271"/>
+      <c r="N16" s="271"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="270" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="268"/>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
-      <c r="Y16" s="268"/>
-      <c r="Z16" s="268"/>
-      <c r="AA16" s="268"/>
-      <c r="AB16" s="268"/>
-      <c r="AC16" s="268"/>
-      <c r="AD16" s="268"/>
-      <c r="AE16" s="268"/>
-      <c r="AF16" s="268"/>
-      <c r="AG16" s="268"/>
-      <c r="AH16" s="268"/>
-      <c r="AI16" s="268"/>
-      <c r="AJ16" s="268"/>
-      <c r="AK16" s="268"/>
-      <c r="AL16" s="268"/>
-      <c r="AM16" s="268"/>
-      <c r="AN16" s="268"/>
-      <c r="AO16" s="268"/>
-      <c r="AP16" s="268"/>
-      <c r="AQ16" s="268"/>
-      <c r="AR16" s="269"/>
-      <c r="AS16" s="264" t="s">
+      <c r="Q16" s="271"/>
+      <c r="R16" s="271"/>
+      <c r="S16" s="271"/>
+      <c r="T16" s="271"/>
+      <c r="U16" s="271"/>
+      <c r="V16" s="271"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="271"/>
+      <c r="AN16" s="271"/>
+      <c r="AO16" s="271"/>
+      <c r="AP16" s="271"/>
+      <c r="AQ16" s="271"/>
+      <c r="AR16" s="272"/>
+      <c r="AS16" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="AT16" s="265"/>
-      <c r="AU16" s="265"/>
-      <c r="AV16" s="265"/>
-      <c r="AW16" s="265"/>
-      <c r="AX16" s="265"/>
-      <c r="AY16" s="265"/>
-      <c r="AZ16" s="265"/>
-      <c r="BA16" s="265"/>
-      <c r="BB16" s="265"/>
-      <c r="BC16" s="265"/>
-      <c r="BD16" s="265"/>
-      <c r="BE16" s="265"/>
-      <c r="BF16" s="265"/>
-      <c r="BG16" s="265"/>
-      <c r="BH16" s="265"/>
-      <c r="BI16" s="265"/>
-      <c r="BJ16" s="265"/>
-      <c r="BK16" s="265"/>
-      <c r="BL16" s="265"/>
-      <c r="BM16" s="265"/>
-      <c r="BN16" s="266"/>
+      <c r="AT16" s="274"/>
+      <c r="AU16" s="274"/>
+      <c r="AV16" s="274"/>
+      <c r="AW16" s="274"/>
+      <c r="AX16" s="274"/>
+      <c r="AY16" s="274"/>
+      <c r="AZ16" s="274"/>
+      <c r="BA16" s="274"/>
+      <c r="BB16" s="274"/>
+      <c r="BC16" s="274"/>
+      <c r="BD16" s="274"/>
+      <c r="BE16" s="274"/>
+      <c r="BF16" s="274"/>
+      <c r="BG16" s="274"/>
+      <c r="BH16" s="274"/>
+      <c r="BI16" s="274"/>
+      <c r="BJ16" s="274"/>
+      <c r="BK16" s="274"/>
+      <c r="BL16" s="274"/>
+      <c r="BM16" s="274"/>
+      <c r="BN16" s="275"/>
     </row>
     <row r="17" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="102">
         <v>10</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="268"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="268"/>
-      <c r="L17" s="268"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="267" t="s">
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="271"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="271"/>
+      <c r="L17" s="271"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="271"/>
+      <c r="O17" s="272"/>
+      <c r="P17" s="270" t="s">
         <v>123</v>
       </c>
-      <c r="Q17" s="268"/>
-      <c r="R17" s="268"/>
-      <c r="S17" s="268"/>
-      <c r="T17" s="268"/>
-      <c r="U17" s="268"/>
-      <c r="V17" s="268"/>
-      <c r="W17" s="268"/>
-      <c r="X17" s="268"/>
-      <c r="Y17" s="268"/>
-      <c r="Z17" s="268"/>
-      <c r="AA17" s="268"/>
-      <c r="AB17" s="268"/>
-      <c r="AC17" s="268"/>
-      <c r="AD17" s="268"/>
-      <c r="AE17" s="268"/>
-      <c r="AF17" s="268"/>
-      <c r="AG17" s="268"/>
-      <c r="AH17" s="268"/>
-      <c r="AI17" s="268"/>
-      <c r="AJ17" s="268"/>
-      <c r="AK17" s="268"/>
-      <c r="AL17" s="268"/>
-      <c r="AM17" s="268"/>
-      <c r="AN17" s="268"/>
-      <c r="AO17" s="268"/>
-      <c r="AP17" s="268"/>
-      <c r="AQ17" s="268"/>
-      <c r="AR17" s="269"/>
-      <c r="AS17" s="264" t="s">
+      <c r="Q17" s="271"/>
+      <c r="R17" s="271"/>
+      <c r="S17" s="271"/>
+      <c r="T17" s="271"/>
+      <c r="U17" s="271"/>
+      <c r="V17" s="271"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="271"/>
+      <c r="AI17" s="271"/>
+      <c r="AJ17" s="271"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="271"/>
+      <c r="AN17" s="271"/>
+      <c r="AO17" s="271"/>
+      <c r="AP17" s="271"/>
+      <c r="AQ17" s="271"/>
+      <c r="AR17" s="272"/>
+      <c r="AS17" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="AT17" s="265"/>
-      <c r="AU17" s="265"/>
-      <c r="AV17" s="265"/>
-      <c r="AW17" s="265"/>
-      <c r="AX17" s="265"/>
-      <c r="AY17" s="265"/>
-      <c r="AZ17" s="265"/>
-      <c r="BA17" s="265"/>
-      <c r="BB17" s="265"/>
-      <c r="BC17" s="265"/>
-      <c r="BD17" s="265"/>
-      <c r="BE17" s="265"/>
-      <c r="BF17" s="265"/>
-      <c r="BG17" s="265"/>
-      <c r="BH17" s="265"/>
-      <c r="BI17" s="265"/>
-      <c r="BJ17" s="265"/>
-      <c r="BK17" s="265"/>
-      <c r="BL17" s="265"/>
-      <c r="BM17" s="265"/>
-      <c r="BN17" s="266"/>
+      <c r="AT17" s="274"/>
+      <c r="AU17" s="274"/>
+      <c r="AV17" s="274"/>
+      <c r="AW17" s="274"/>
+      <c r="AX17" s="274"/>
+      <c r="AY17" s="274"/>
+      <c r="AZ17" s="274"/>
+      <c r="BA17" s="274"/>
+      <c r="BB17" s="274"/>
+      <c r="BC17" s="274"/>
+      <c r="BD17" s="274"/>
+      <c r="BE17" s="274"/>
+      <c r="BF17" s="274"/>
+      <c r="BG17" s="274"/>
+      <c r="BH17" s="274"/>
+      <c r="BI17" s="274"/>
+      <c r="BJ17" s="274"/>
+      <c r="BK17" s="274"/>
+      <c r="BL17" s="274"/>
+      <c r="BM17" s="274"/>
+      <c r="BN17" s="275"/>
     </row>
     <row r="18" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="102">
         <v>11</v>
       </c>
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="268"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="268"/>
-      <c r="M18" s="268"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="267" t="s">
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="271"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="270" t="s">
         <v>125</v>
       </c>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="268"/>
-      <c r="S18" s="268"/>
-      <c r="T18" s="268"/>
-      <c r="U18" s="268"/>
-      <c r="V18" s="268"/>
-      <c r="W18" s="268"/>
-      <c r="X18" s="268"/>
-      <c r="Y18" s="268"/>
-      <c r="Z18" s="268"/>
-      <c r="AA18" s="268"/>
-      <c r="AB18" s="268"/>
-      <c r="AC18" s="268"/>
-      <c r="AD18" s="268"/>
-      <c r="AE18" s="268"/>
-      <c r="AF18" s="268"/>
-      <c r="AG18" s="268"/>
-      <c r="AH18" s="268"/>
-      <c r="AI18" s="268"/>
-      <c r="AJ18" s="268"/>
-      <c r="AK18" s="268"/>
-      <c r="AL18" s="268"/>
-      <c r="AM18" s="268"/>
-      <c r="AN18" s="268"/>
-      <c r="AO18" s="268"/>
-      <c r="AP18" s="268"/>
-      <c r="AQ18" s="268"/>
-      <c r="AR18" s="269"/>
-      <c r="AS18" s="264" t="s">
+      <c r="Q18" s="271"/>
+      <c r="R18" s="271"/>
+      <c r="S18" s="271"/>
+      <c r="T18" s="271"/>
+      <c r="U18" s="271"/>
+      <c r="V18" s="271"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="271"/>
+      <c r="Z18" s="271"/>
+      <c r="AA18" s="271"/>
+      <c r="AB18" s="271"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="271"/>
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="271"/>
+      <c r="AI18" s="271"/>
+      <c r="AJ18" s="271"/>
+      <c r="AK18" s="271"/>
+      <c r="AL18" s="271"/>
+      <c r="AM18" s="271"/>
+      <c r="AN18" s="271"/>
+      <c r="AO18" s="271"/>
+      <c r="AP18" s="271"/>
+      <c r="AQ18" s="271"/>
+      <c r="AR18" s="272"/>
+      <c r="AS18" s="273" t="s">
         <v>126</v>
       </c>
-      <c r="AT18" s="265"/>
-      <c r="AU18" s="265"/>
-      <c r="AV18" s="265"/>
-      <c r="AW18" s="265"/>
-      <c r="AX18" s="265"/>
-      <c r="AY18" s="265"/>
-      <c r="AZ18" s="265"/>
-      <c r="BA18" s="265"/>
-      <c r="BB18" s="265"/>
-      <c r="BC18" s="265"/>
-      <c r="BD18" s="265"/>
-      <c r="BE18" s="265"/>
-      <c r="BF18" s="265"/>
-      <c r="BG18" s="265"/>
-      <c r="BH18" s="265"/>
-      <c r="BI18" s="265"/>
-      <c r="BJ18" s="265"/>
-      <c r="BK18" s="265"/>
-      <c r="BL18" s="265"/>
-      <c r="BM18" s="265"/>
-      <c r="BN18" s="266"/>
+      <c r="AT18" s="274"/>
+      <c r="AU18" s="274"/>
+      <c r="AV18" s="274"/>
+      <c r="AW18" s="274"/>
+      <c r="AX18" s="274"/>
+      <c r="AY18" s="274"/>
+      <c r="AZ18" s="274"/>
+      <c r="BA18" s="274"/>
+      <c r="BB18" s="274"/>
+      <c r="BC18" s="274"/>
+      <c r="BD18" s="274"/>
+      <c r="BE18" s="274"/>
+      <c r="BF18" s="274"/>
+      <c r="BG18" s="274"/>
+      <c r="BH18" s="274"/>
+      <c r="BI18" s="274"/>
+      <c r="BJ18" s="274"/>
+      <c r="BK18" s="274"/>
+      <c r="BL18" s="274"/>
+      <c r="BM18" s="274"/>
+      <c r="BN18" s="275"/>
     </row>
     <row r="19" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="102">
         <v>12</v>
       </c>
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="268"/>
-      <c r="D19" s="268"/>
-      <c r="E19" s="268"/>
-      <c r="F19" s="268"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="268"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="267" t="s">
+      <c r="C19" s="271"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="271"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="271"/>
+      <c r="O19" s="272"/>
+      <c r="P19" s="270" t="s">
         <v>127</v>
       </c>
-      <c r="Q19" s="268"/>
-      <c r="R19" s="268"/>
-      <c r="S19" s="268"/>
-      <c r="T19" s="268"/>
-      <c r="U19" s="268"/>
-      <c r="V19" s="268"/>
-      <c r="W19" s="268"/>
-      <c r="X19" s="268"/>
-      <c r="Y19" s="268"/>
-      <c r="Z19" s="268"/>
-      <c r="AA19" s="268"/>
-      <c r="AB19" s="268"/>
-      <c r="AC19" s="268"/>
-      <c r="AD19" s="268"/>
-      <c r="AE19" s="268"/>
-      <c r="AF19" s="268"/>
-      <c r="AG19" s="268"/>
-      <c r="AH19" s="268"/>
-      <c r="AI19" s="268"/>
-      <c r="AJ19" s="268"/>
-      <c r="AK19" s="268"/>
-      <c r="AL19" s="268"/>
-      <c r="AM19" s="268"/>
-      <c r="AN19" s="268"/>
-      <c r="AO19" s="268"/>
-      <c r="AP19" s="268"/>
-      <c r="AQ19" s="268"/>
-      <c r="AR19" s="269"/>
-      <c r="AS19" s="264" t="s">
+      <c r="Q19" s="271"/>
+      <c r="R19" s="271"/>
+      <c r="S19" s="271"/>
+      <c r="T19" s="271"/>
+      <c r="U19" s="271"/>
+      <c r="V19" s="271"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AK19" s="271"/>
+      <c r="AL19" s="271"/>
+      <c r="AM19" s="271"/>
+      <c r="AN19" s="271"/>
+      <c r="AO19" s="271"/>
+      <c r="AP19" s="271"/>
+      <c r="AQ19" s="271"/>
+      <c r="AR19" s="272"/>
+      <c r="AS19" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="AT19" s="265"/>
-      <c r="AU19" s="265"/>
-      <c r="AV19" s="265"/>
-      <c r="AW19" s="265"/>
-      <c r="AX19" s="265"/>
-      <c r="AY19" s="265"/>
-      <c r="AZ19" s="265"/>
-      <c r="BA19" s="265"/>
-      <c r="BB19" s="265"/>
-      <c r="BC19" s="265"/>
-      <c r="BD19" s="265"/>
-      <c r="BE19" s="265"/>
-      <c r="BF19" s="265"/>
-      <c r="BG19" s="265"/>
-      <c r="BH19" s="265"/>
-      <c r="BI19" s="265"/>
-      <c r="BJ19" s="265"/>
-      <c r="BK19" s="265"/>
-      <c r="BL19" s="265"/>
-      <c r="BM19" s="265"/>
-      <c r="BN19" s="266"/>
+      <c r="AT19" s="274"/>
+      <c r="AU19" s="274"/>
+      <c r="AV19" s="274"/>
+      <c r="AW19" s="274"/>
+      <c r="AX19" s="274"/>
+      <c r="AY19" s="274"/>
+      <c r="AZ19" s="274"/>
+      <c r="BA19" s="274"/>
+      <c r="BB19" s="274"/>
+      <c r="BC19" s="274"/>
+      <c r="BD19" s="274"/>
+      <c r="BE19" s="274"/>
+      <c r="BF19" s="274"/>
+      <c r="BG19" s="274"/>
+      <c r="BH19" s="274"/>
+      <c r="BI19" s="274"/>
+      <c r="BJ19" s="274"/>
+      <c r="BK19" s="274"/>
+      <c r="BL19" s="274"/>
+      <c r="BM19" s="274"/>
+      <c r="BN19" s="275"/>
     </row>
     <row r="20" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="102">
         <v>13</v>
       </c>
-      <c r="B20" s="267" t="s">
+      <c r="B20" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="267" t="s">
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="271"/>
+      <c r="K20" s="271"/>
+      <c r="L20" s="271"/>
+      <c r="M20" s="271"/>
+      <c r="N20" s="271"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="270" t="s">
         <v>129</v>
       </c>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="268"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="268"/>
-      <c r="W20" s="268"/>
-      <c r="X20" s="268"/>
-      <c r="Y20" s="268"/>
-      <c r="Z20" s="268"/>
-      <c r="AA20" s="268"/>
-      <c r="AB20" s="268"/>
-      <c r="AC20" s="268"/>
-      <c r="AD20" s="268"/>
-      <c r="AE20" s="268"/>
-      <c r="AF20" s="268"/>
-      <c r="AG20" s="268"/>
-      <c r="AH20" s="268"/>
-      <c r="AI20" s="268"/>
-      <c r="AJ20" s="268"/>
-      <c r="AK20" s="268"/>
-      <c r="AL20" s="268"/>
-      <c r="AM20" s="268"/>
-      <c r="AN20" s="268"/>
-      <c r="AO20" s="268"/>
-      <c r="AP20" s="268"/>
-      <c r="AQ20" s="268"/>
-      <c r="AR20" s="269"/>
-      <c r="AS20" s="264" t="s">
+      <c r="Q20" s="271"/>
+      <c r="R20" s="271"/>
+      <c r="S20" s="271"/>
+      <c r="T20" s="271"/>
+      <c r="U20" s="271"/>
+      <c r="V20" s="271"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="271"/>
+      <c r="Z20" s="271"/>
+      <c r="AA20" s="271"/>
+      <c r="AB20" s="271"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="271"/>
+      <c r="AE20" s="271"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="271"/>
+      <c r="AJ20" s="271"/>
+      <c r="AK20" s="271"/>
+      <c r="AL20" s="271"/>
+      <c r="AM20" s="271"/>
+      <c r="AN20" s="271"/>
+      <c r="AO20" s="271"/>
+      <c r="AP20" s="271"/>
+      <c r="AQ20" s="271"/>
+      <c r="AR20" s="272"/>
+      <c r="AS20" s="273" t="s">
         <v>131</v>
       </c>
-      <c r="AT20" s="265"/>
-      <c r="AU20" s="265"/>
-      <c r="AV20" s="265"/>
-      <c r="AW20" s="265"/>
-      <c r="AX20" s="265"/>
-      <c r="AY20" s="265"/>
-      <c r="AZ20" s="265"/>
-      <c r="BA20" s="265"/>
-      <c r="BB20" s="265"/>
-      <c r="BC20" s="265"/>
-      <c r="BD20" s="265"/>
-      <c r="BE20" s="265"/>
-      <c r="BF20" s="265"/>
-      <c r="BG20" s="265"/>
-      <c r="BH20" s="265"/>
-      <c r="BI20" s="265"/>
-      <c r="BJ20" s="265"/>
-      <c r="BK20" s="265"/>
-      <c r="BL20" s="265"/>
-      <c r="BM20" s="265"/>
-      <c r="BN20" s="266"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="274"/>
+      <c r="AX20" s="274"/>
+      <c r="AY20" s="274"/>
+      <c r="AZ20" s="274"/>
+      <c r="BA20" s="274"/>
+      <c r="BB20" s="274"/>
+      <c r="BC20" s="274"/>
+      <c r="BD20" s="274"/>
+      <c r="BE20" s="274"/>
+      <c r="BF20" s="274"/>
+      <c r="BG20" s="274"/>
+      <c r="BH20" s="274"/>
+      <c r="BI20" s="274"/>
+      <c r="BJ20" s="274"/>
+      <c r="BK20" s="274"/>
+      <c r="BL20" s="274"/>
+      <c r="BM20" s="274"/>
+      <c r="BN20" s="275"/>
     </row>
     <row r="21" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="102">
         <v>14</v>
       </c>
-      <c r="B21" s="267" t="s">
+      <c r="B21" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="268"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="268"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="269"/>
-      <c r="P21" s="267" t="s">
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="271"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="271"/>
+      <c r="K21" s="271"/>
+      <c r="L21" s="271"/>
+      <c r="M21" s="271"/>
+      <c r="N21" s="271"/>
+      <c r="O21" s="272"/>
+      <c r="P21" s="270" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="268"/>
-      <c r="S21" s="268"/>
-      <c r="T21" s="268"/>
-      <c r="U21" s="268"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="268"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="268"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="268"/>
-      <c r="AH21" s="268"/>
-      <c r="AI21" s="268"/>
-      <c r="AJ21" s="268"/>
-      <c r="AK21" s="268"/>
-      <c r="AL21" s="268"/>
-      <c r="AM21" s="268"/>
-      <c r="AN21" s="268"/>
-      <c r="AO21" s="268"/>
-      <c r="AP21" s="268"/>
-      <c r="AQ21" s="268"/>
-      <c r="AR21" s="269"/>
-      <c r="AS21" s="264" t="s">
+      <c r="Q21" s="271"/>
+      <c r="R21" s="271"/>
+      <c r="S21" s="271"/>
+      <c r="T21" s="271"/>
+      <c r="U21" s="271"/>
+      <c r="V21" s="271"/>
+      <c r="W21" s="271"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="271"/>
+      <c r="Z21" s="271"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="271"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="271"/>
+      <c r="AE21" s="271"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="271"/>
+      <c r="AJ21" s="271"/>
+      <c r="AK21" s="271"/>
+      <c r="AL21" s="271"/>
+      <c r="AM21" s="271"/>
+      <c r="AN21" s="271"/>
+      <c r="AO21" s="271"/>
+      <c r="AP21" s="271"/>
+      <c r="AQ21" s="271"/>
+      <c r="AR21" s="272"/>
+      <c r="AS21" s="273" t="s">
         <v>132</v>
       </c>
-      <c r="AT21" s="265"/>
-      <c r="AU21" s="265"/>
-      <c r="AV21" s="265"/>
-      <c r="AW21" s="265"/>
-      <c r="AX21" s="265"/>
-      <c r="AY21" s="265"/>
-      <c r="AZ21" s="265"/>
-      <c r="BA21" s="265"/>
-      <c r="BB21" s="265"/>
-      <c r="BC21" s="265"/>
-      <c r="BD21" s="265"/>
-      <c r="BE21" s="265"/>
-      <c r="BF21" s="265"/>
-      <c r="BG21" s="265"/>
-      <c r="BH21" s="265"/>
-      <c r="BI21" s="265"/>
-      <c r="BJ21" s="265"/>
-      <c r="BK21" s="265"/>
-      <c r="BL21" s="265"/>
-      <c r="BM21" s="265"/>
-      <c r="BN21" s="266"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="274"/>
+      <c r="AX21" s="274"/>
+      <c r="AY21" s="274"/>
+      <c r="AZ21" s="274"/>
+      <c r="BA21" s="274"/>
+      <c r="BB21" s="274"/>
+      <c r="BC21" s="274"/>
+      <c r="BD21" s="274"/>
+      <c r="BE21" s="274"/>
+      <c r="BF21" s="274"/>
+      <c r="BG21" s="274"/>
+      <c r="BH21" s="274"/>
+      <c r="BI21" s="274"/>
+      <c r="BJ21" s="274"/>
+      <c r="BK21" s="274"/>
+      <c r="BL21" s="274"/>
+      <c r="BM21" s="274"/>
+      <c r="BN21" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="AS7:BN7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="AS8:BN8"/>
+    <mergeCell ref="AS19:BN19"/>
+    <mergeCell ref="AS20:BN20"/>
+    <mergeCell ref="AS21:BN21"/>
+    <mergeCell ref="AS14:BN14"/>
+    <mergeCell ref="AS15:BN15"/>
+    <mergeCell ref="AS16:BN16"/>
+    <mergeCell ref="AS17:BN17"/>
+    <mergeCell ref="AS18:BN18"/>
+    <mergeCell ref="AS9:BN9"/>
+    <mergeCell ref="AS10:BN10"/>
+    <mergeCell ref="AS11:BN11"/>
+    <mergeCell ref="AS12:BN12"/>
+    <mergeCell ref="AS13:BN13"/>
+    <mergeCell ref="P19:AR19"/>
+    <mergeCell ref="P20:AR20"/>
+    <mergeCell ref="P21:AR21"/>
+    <mergeCell ref="P14:AR14"/>
+    <mergeCell ref="P15:AR15"/>
+    <mergeCell ref="P16:AR16"/>
+    <mergeCell ref="P17:AR17"/>
+    <mergeCell ref="P18:AR18"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="P10:AR10"/>
+    <mergeCell ref="P11:AR11"/>
+    <mergeCell ref="P12:AR12"/>
+    <mergeCell ref="P13:AR13"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -16084,50 +16116,12 @@
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="P10:AR10"/>
-    <mergeCell ref="P11:AR11"/>
-    <mergeCell ref="P12:AR12"/>
-    <mergeCell ref="P13:AR13"/>
-    <mergeCell ref="P19:AR19"/>
-    <mergeCell ref="P20:AR20"/>
-    <mergeCell ref="P21:AR21"/>
-    <mergeCell ref="P14:AR14"/>
-    <mergeCell ref="P15:AR15"/>
-    <mergeCell ref="P16:AR16"/>
-    <mergeCell ref="P17:AR17"/>
-    <mergeCell ref="P18:AR18"/>
-    <mergeCell ref="AS9:BN9"/>
-    <mergeCell ref="AS10:BN10"/>
-    <mergeCell ref="AS11:BN11"/>
-    <mergeCell ref="AS12:BN12"/>
-    <mergeCell ref="AS13:BN13"/>
-    <mergeCell ref="AS19:BN19"/>
-    <mergeCell ref="AS20:BN20"/>
-    <mergeCell ref="AS21:BN21"/>
-    <mergeCell ref="AS14:BN14"/>
-    <mergeCell ref="AS15:BN15"/>
-    <mergeCell ref="AS16:BN16"/>
-    <mergeCell ref="AS17:BN17"/>
-    <mergeCell ref="AS18:BN18"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AR7"/>
+    <mergeCell ref="AS7:BN7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="AS8:BN8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
